--- a/shared/ojb-resources-common/src/main/resources/ssp/Case_Filing_Decision_Reporting/artifacts/service_model/information_model/IEPD/documentation/XSL-tmp/AlaskaCriminalCaseMapping.xlsx
+++ b/shared/ojb-resources-common/src/main/resources/ssp/Case_Filing_Decision_Reporting/artifacts/service_model/information_model/IEPD/documentation/XSL-tmp/AlaskaCriminalCaseMapping.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="5460" windowWidth="28800" windowHeight="16440"/>
+    <workbookView xWindow="-28800" yWindow="5460" windowWidth="24240" windowHeight="13740"/>
   </bookViews>
   <sheets>
     <sheet name="Court Case Filing" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="347">
   <si>
     <t>ATN [Arrest Tracking Number]</t>
   </si>
@@ -532,9 +532,6 @@
     <t>Offense ID</t>
   </si>
   <si>
-    <t>Offense Catregory Text</t>
-  </si>
-  <si>
     <t>/core:CoreFilingMessage/criminalcase:CriminalCase/criminalcase:CaseCharge/criminalcase:ChargeOffense/nc:ActivityIdentification/nc:IdentificationID</t>
   </si>
   <si>
@@ -574,9 +571,6 @@
     <t>Uniform Offense Code</t>
   </si>
   <si>
-    <t>PassPort Category</t>
-  </si>
-  <si>
     <t>State ID Category</t>
   </si>
   <si>
@@ -667,9 +661,6 @@
     <t>AO45678</t>
   </si>
   <si>
-    <t>ATN34567</t>
-  </si>
-  <si>
     <t>ATN</t>
   </si>
   <si>
@@ -679,30 +670,6 @@
     <t>Felony</t>
   </si>
   <si>
-    <t>Dcoument Category</t>
-  </si>
-  <si>
-    <t>JD:  Are we sure we want this mapping to be to a Binary Document?</t>
-  </si>
-  <si>
-    <t>George M. Jones</t>
-  </si>
-  <si>
-    <t>Bar45678</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>4657-93</t>
-  </si>
-  <si>
-    <t>Attempted Robbery</t>
-  </si>
-  <si>
-    <t>UOC 657879</t>
-  </si>
-  <si>
     <t>Harold</t>
   </si>
   <si>
@@ -718,12 +685,6 @@
     <t>Harold j. Raulli</t>
   </si>
   <si>
-    <t>Pas43567</t>
-  </si>
-  <si>
-    <t>Passport</t>
-  </si>
-  <si>
     <t>SID4567</t>
   </si>
   <si>
@@ -733,9 +694,6 @@
     <t>DL45678</t>
   </si>
   <si>
-    <t>Driver License</t>
-  </si>
-  <si>
     <t>Alaska</t>
   </si>
   <si>
@@ -751,34 +709,13 @@
     <t>Operator License</t>
   </si>
   <si>
-    <t>Rober T. Forgerty</t>
-  </si>
-  <si>
     <t>ACML Corporation</t>
   </si>
   <si>
-    <t xml:space="preserve">JD: Why not use nc:CaseDocketID for this element mapping? </t>
-  </si>
-  <si>
-    <t>Derieved from JW Staute Code and Statue Code Section.</t>
-  </si>
-  <si>
-    <t>JD: Why not use "Filing Date" for this element mapping?</t>
-  </si>
-  <si>
-    <t>Class A</t>
-  </si>
-  <si>
-    <t>8.10.040.B.7</t>
-  </si>
-  <si>
     <t>District Court for the State of Alaska</t>
   </si>
   <si>
     <t>Third Judicial District of Alaska</t>
-  </si>
-  <si>
-    <t>JD: Is this mapping from a code to an Organization ID correct?</t>
   </si>
   <si>
     <t>/core:CoreFilingMessage/criminalcase:CriminalCase/j:CaseAugmentation/j:CaseDefendantParty/ecf:EntityPerson</t>
@@ -1014,6 +951,117 @@
   </si>
   <si>
     <t>/cfd-doc:CourtCaseFilingDocument/nc:Person/cfd-ext:OperatorLicenseIdentification/nc:IdentificationCategoryText</t>
+  </si>
+  <si>
+    <t>1967-08-13</t>
+  </si>
+  <si>
+    <t>1967-08-14</t>
+  </si>
+  <si>
+    <t>1967-08-15</t>
+  </si>
+  <si>
+    <t>VRA Text</t>
+  </si>
+  <si>
+    <t>Bill of Information</t>
+  </si>
+  <si>
+    <t>Municipality of Anchorage</t>
+  </si>
+  <si>
+    <t>Probable Cause Text</t>
+  </si>
+  <si>
+    <t>1967-07-15</t>
+  </si>
+  <si>
+    <t>Text of Location</t>
+  </si>
+  <si>
+    <t>Offense Category Text</t>
+  </si>
+  <si>
+    <t>1967-12-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">See Defendant </t>
+  </si>
+  <si>
+    <t>True for all counts, false for none</t>
+  </si>
+  <si>
+    <t>See Case Initiating Party - Person</t>
+  </si>
+  <si>
+    <t>Case Initiating Party - Judicial Officia</t>
+  </si>
+  <si>
+    <t>See Case Initiating Party - Judicial Offical</t>
+  </si>
+  <si>
+    <t>District Court Judge</t>
+  </si>
+  <si>
+    <t>AK43567</t>
+  </si>
+  <si>
+    <t>AK98616</t>
+  </si>
+  <si>
+    <t>Municipal Attorney</t>
+  </si>
+  <si>
+    <t>Class B</t>
+  </si>
+  <si>
+    <t>11.61.195(a)(1)</t>
+  </si>
+  <si>
+    <t>Derived from JW Statute Code and Statue Code Section.</t>
+  </si>
+  <si>
+    <t>AS</t>
+  </si>
+  <si>
+    <t>Robbery 1 - Armed with Deadly Weapon</t>
+  </si>
+  <si>
+    <t>61.195(a)(1)</t>
+  </si>
+  <si>
+    <t>True if DV related charge</t>
+  </si>
+  <si>
+    <t>Passport Category</t>
+  </si>
+  <si>
+    <t>Civilian</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>Commercial</t>
+  </si>
+  <si>
+    <t>Robert</t>
+  </si>
+  <si>
+    <t>Thomas</t>
+  </si>
+  <si>
+    <t>Forgerty</t>
+  </si>
+  <si>
+    <t>Robert Thomas Forgerty</t>
+  </si>
+  <si>
+    <t>at or near</t>
+  </si>
+  <si>
+    <t>AK</t>
   </si>
 </sst>
 </file>
@@ -1407,7 +1455,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1516,6 +1564,9 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="90">
@@ -1909,8 +1960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="D89" sqref="D89"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1927,16 +1978,16 @@
         <v>70</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D1" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="E1" s="17" t="s">
         <v>175</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1948,35 +1999,41 @@
       <c r="D2" s="18"/>
       <c r="E2" s="18"/>
     </row>
-    <row r="3" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="21"/>
+      <c r="B3" s="37" t="s">
+        <v>310</v>
+      </c>
       <c r="C3" s="19" t="s">
-        <v>256</v>
+        <v>235</v>
       </c>
       <c r="D3" s="28"/>
       <c r="E3" s="19"/>
     </row>
-    <row r="4" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="21"/>
+      <c r="B4" s="37" t="s">
+        <v>311</v>
+      </c>
       <c r="C4" s="19" t="s">
-        <v>257</v>
+        <v>236</v>
       </c>
       <c r="D4" s="19"/>
       <c r="E4" s="19"/>
     </row>
-    <row r="5" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="21"/>
+      <c r="B5" s="37" t="s">
+        <v>312</v>
+      </c>
       <c r="C5" s="19" t="s">
-        <v>258</v>
+        <v>237</v>
       </c>
       <c r="D5" s="23"/>
       <c r="E5" s="19"/>
@@ -1985,20 +2042,24 @@
       <c r="A6" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="22"/>
+      <c r="B6" s="37" t="b">
+        <v>1</v>
+      </c>
       <c r="C6" s="19" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="D6" s="19"/>
       <c r="E6" s="19"/>
     </row>
-    <row r="7" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="B7" s="22"/>
+      <c r="B7" s="21" t="s">
+        <v>313</v>
+      </c>
       <c r="C7" s="19" t="s">
-        <v>326</v>
+        <v>305</v>
       </c>
       <c r="D7" s="19"/>
       <c r="E7" s="19"/>
@@ -2017,13 +2078,13 @@
         <v>32</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>259</v>
+        <v>238</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E9" s="19"/>
     </row>
@@ -2032,13 +2093,13 @@
         <v>33</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>260</v>
+        <v>239</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E10" s="19"/>
     </row>
@@ -2046,9 +2107,11 @@
       <c r="A11" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="21"/>
+      <c r="B11" s="21" t="s">
+        <v>315</v>
+      </c>
       <c r="C11" s="19" t="s">
-        <v>261</v>
+        <v>240</v>
       </c>
       <c r="D11" s="23"/>
       <c r="E11" s="19"/>
@@ -2058,13 +2121,13 @@
         <v>35</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>262</v>
+        <v>241</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E12" s="19"/>
     </row>
@@ -2072,20 +2135,24 @@
       <c r="A13" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="21"/>
+      <c r="B13" s="21" t="s">
+        <v>315</v>
+      </c>
       <c r="C13" s="19" t="s">
-        <v>263</v>
+        <v>242</v>
       </c>
       <c r="D13" s="19"/>
       <c r="E13" s="19"/>
     </row>
-    <row r="14" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="21"/>
+      <c r="B14" s="21" t="s">
+        <v>316</v>
+      </c>
       <c r="C14" s="19" t="s">
-        <v>264</v>
+        <v>243</v>
       </c>
       <c r="D14" s="19"/>
     </row>
@@ -2093,27 +2160,27 @@
       <c r="A15" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="24" t="s">
-        <v>215</v>
+      <c r="B15" s="24">
+        <v>5656787</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E15" s="22"/>
     </row>
     <row r="16" spans="1:5" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A16" s="24" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C16" s="24"/>
       <c r="D16" s="24" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E16" s="26"/>
     </row>
@@ -2128,27 +2195,29 @@
     </row>
     <row r="18" spans="1:5" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A18" s="24" t="s">
-        <v>179</v>
-      </c>
-      <c r="B18" s="33">
-        <v>42257</v>
+        <v>178</v>
+      </c>
+      <c r="B18" s="37" t="s">
+        <v>317</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>266</v>
+        <v>245</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E18" s="26"/>
     </row>
     <row r="19" spans="1:5" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A19" s="24" t="s">
-        <v>180</v>
-      </c>
-      <c r="B19" s="24"/>
+        <v>179</v>
+      </c>
+      <c r="B19" s="37" t="s">
+        <v>317</v>
+      </c>
       <c r="C19" s="26"/>
       <c r="D19" s="24" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E19" s="26"/>
     </row>
@@ -2160,33 +2229,35 @@
       <c r="C20" s="26"/>
       <c r="D20" s="26"/>
       <c r="E20" s="24" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="21" spans="1:5" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A21" s="24" t="s">
-        <v>170</v>
+        <v>319</v>
       </c>
       <c r="B21" s="24"/>
       <c r="C21" s="26"/>
       <c r="D21" s="26" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="22" spans="1:5" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A22" s="24" t="s">
-        <v>173</v>
-      </c>
-      <c r="B22" s="24"/>
+        <v>172</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>318</v>
+      </c>
       <c r="C22" s="26"/>
       <c r="D22" s="26" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -2203,30 +2274,28 @@
         <v>3</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>267</v>
+        <v>246</v>
       </c>
       <c r="D24" s="30" t="s">
-        <v>192</v>
-      </c>
-      <c r="E24" s="25" t="s">
-        <v>245</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="E24" s="25"/>
     </row>
     <row r="25" spans="1:5" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A25" s="24" t="s">
         <v>136</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C25" s="26" t="s">
-        <v>268</v>
+        <v>247</v>
       </c>
       <c r="D25" s="26" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E25" s="26"/>
     </row>
@@ -2234,14 +2303,14 @@
       <c r="A26" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="B26" s="33">
-        <v>42344</v>
+      <c r="B26" s="37" t="s">
+        <v>320</v>
       </c>
       <c r="C26" s="26" t="s">
-        <v>269</v>
+        <v>248</v>
       </c>
       <c r="D26" s="26" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E26" s="26"/>
     </row>
@@ -2250,47 +2319,43 @@
         <v>138</v>
       </c>
       <c r="B27" s="24" t="s">
-        <v>219</v>
+        <v>314</v>
       </c>
       <c r="C27" s="26" t="s">
-        <v>270</v>
+        <v>249</v>
       </c>
       <c r="D27" s="36" t="s">
-        <v>209</v>
-      </c>
-      <c r="E27" s="25" t="s">
-        <v>220</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="E27" s="25"/>
     </row>
     <row r="28" spans="1:5" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A28" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="B28" s="33">
-        <v>42318</v>
+      <c r="B28" s="37" t="s">
+        <v>312</v>
       </c>
       <c r="C28" s="26" t="s">
-        <v>271</v>
+        <v>250</v>
       </c>
       <c r="D28" s="26" t="s">
         <v>164</v>
       </c>
-      <c r="E28" s="25" t="s">
-        <v>247</v>
-      </c>
+      <c r="E28" s="25"/>
     </row>
     <row r="29" spans="1:5" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A29" s="24" t="s">
         <v>27</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="C29" s="26" t="s">
-        <v>272</v>
+        <v>251</v>
       </c>
       <c r="D29" s="26" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E29" s="26"/>
     </row>
@@ -2299,13 +2364,13 @@
         <v>26</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>251</v>
+        <v>231</v>
       </c>
       <c r="C30" s="26" t="s">
-        <v>273</v>
+        <v>252</v>
       </c>
       <c r="D30" s="26" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E30" s="26"/>
     </row>
@@ -2317,25 +2382,25 @@
         <v>3557</v>
       </c>
       <c r="C31" s="26" t="s">
-        <v>274</v>
+        <v>253</v>
       </c>
       <c r="D31" s="26" t="s">
         <v>165</v>
       </c>
-      <c r="E31" s="25" t="s">
-        <v>252</v>
-      </c>
+      <c r="E31" s="25"/>
     </row>
     <row r="32" spans="1:5" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A32" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="25"/>
+      <c r="B32" s="24" t="s">
+        <v>321</v>
+      </c>
       <c r="C32" s="26" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="D32" s="31" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
       <c r="E32" s="26"/>
     </row>
@@ -2343,20 +2408,26 @@
       <c r="A33" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="B33" s="24"/>
+      <c r="B33" s="24" t="b">
+        <v>1</v>
+      </c>
       <c r="C33" s="26" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="D33" s="27"/>
-      <c r="E33" s="26"/>
+      <c r="E33" s="26" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="34" spans="1:5" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A34" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="B34" s="24"/>
+      <c r="B34" s="24" t="s">
+        <v>323</v>
+      </c>
       <c r="C34" s="26" t="s">
-        <v>277</v>
+        <v>256</v>
       </c>
       <c r="D34" s="26"/>
       <c r="E34" s="26"/>
@@ -2365,9 +2436,11 @@
       <c r="A35" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="B35" s="24"/>
+      <c r="B35" s="24" t="s">
+        <v>325</v>
+      </c>
       <c r="C35" s="26" t="s">
-        <v>278</v>
+        <v>257</v>
       </c>
       <c r="D35" s="26"/>
       <c r="E35" s="26"/>
@@ -2376,9 +2449,11 @@
       <c r="A36" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="B36" s="24"/>
+      <c r="B36" s="24" t="s">
+        <v>328</v>
+      </c>
       <c r="C36" s="26" t="s">
-        <v>279</v>
+        <v>258</v>
       </c>
       <c r="D36" s="26"/>
       <c r="E36" s="26"/>
@@ -2387,9 +2462,11 @@
       <c r="A37" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="B37" s="24"/>
+      <c r="B37" s="24" t="s">
+        <v>224</v>
+      </c>
       <c r="C37" s="26" t="s">
-        <v>280</v>
+        <v>259</v>
       </c>
       <c r="D37" s="26"/>
       <c r="E37" s="26"/>
@@ -2398,9 +2475,11 @@
       <c r="A38" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="B38" s="24"/>
+      <c r="B38" s="24" t="s">
+        <v>326</v>
+      </c>
       <c r="C38" s="26" t="s">
-        <v>281</v>
+        <v>260</v>
       </c>
       <c r="D38" s="26"/>
       <c r="E38" s="26"/>
@@ -2410,13 +2489,13 @@
         <v>65</v>
       </c>
       <c r="B39" s="24" t="s">
-        <v>221</v>
+        <v>325</v>
       </c>
       <c r="C39" s="26" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="D39" s="29" t="s">
-        <v>255</v>
+        <v>234</v>
       </c>
       <c r="E39" s="29"/>
     </row>
@@ -2425,13 +2504,13 @@
         <v>66</v>
       </c>
       <c r="B40" s="24" t="s">
-        <v>222</v>
+        <v>327</v>
       </c>
       <c r="C40" s="26" t="s">
-        <v>283</v>
+        <v>262</v>
       </c>
       <c r="D40" s="26" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E40" s="26"/>
     </row>
@@ -2439,9 +2518,11 @@
       <c r="A41" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="B41" s="24"/>
+      <c r="B41" s="24" t="s">
+        <v>224</v>
+      </c>
       <c r="C41" s="26" t="s">
-        <v>284</v>
+        <v>263</v>
       </c>
       <c r="D41" s="26"/>
       <c r="E41" s="26"/>
@@ -2450,9 +2531,11 @@
       <c r="A42" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="B42" s="24"/>
+      <c r="B42" s="24" t="s">
+        <v>329</v>
+      </c>
       <c r="C42" s="26" t="s">
-        <v>285</v>
+        <v>264</v>
       </c>
       <c r="D42" s="26"/>
       <c r="E42" s="26"/>
@@ -2472,7 +2555,7 @@
       </c>
       <c r="B44" s="26"/>
       <c r="C44" s="26" t="s">
-        <v>286</v>
+        <v>265</v>
       </c>
       <c r="D44" s="26"/>
       <c r="E44" s="26"/>
@@ -2481,9 +2564,11 @@
       <c r="A45" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="B45" s="26"/>
+      <c r="B45" s="37" t="s">
+        <v>312</v>
+      </c>
       <c r="C45" s="26" t="s">
-        <v>287</v>
+        <v>266</v>
       </c>
       <c r="D45" s="26"/>
       <c r="E45" s="26"/>
@@ -2496,10 +2581,10 @@
         <v>2</v>
       </c>
       <c r="C46" s="26" t="s">
-        <v>288</v>
+        <v>267</v>
       </c>
       <c r="D46" s="29" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E46" s="26"/>
     </row>
@@ -2508,13 +2593,13 @@
         <v>17</v>
       </c>
       <c r="B47" s="24" t="s">
-        <v>248</v>
+        <v>330</v>
       </c>
       <c r="C47" s="26" t="s">
-        <v>289</v>
+        <v>268</v>
       </c>
       <c r="D47" s="26" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E47" s="26"/>
     </row>
@@ -2523,45 +2608,45 @@
         <v>18</v>
       </c>
       <c r="B48" s="24" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C48" s="26" t="s">
-        <v>290</v>
+        <v>269</v>
       </c>
       <c r="D48" s="24" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E48" s="25" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="49" spans="1:5" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A49" s="25" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B49" s="24" t="s">
-        <v>226</v>
+        <v>331</v>
       </c>
       <c r="C49" s="26"/>
       <c r="D49" s="32" t="s">
         <v>168</v>
       </c>
       <c r="E49" s="26" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A50" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B50" s="24" t="s">
-        <v>224</v>
+      <c r="B50" s="24">
+        <v>11</v>
       </c>
       <c r="C50" s="26" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
       <c r="D50" s="26" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E50" s="26"/>
     </row>
@@ -2569,9 +2654,11 @@
       <c r="A51" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="B51" s="24"/>
+      <c r="B51" s="24" t="s">
+        <v>333</v>
+      </c>
       <c r="C51" s="26" t="s">
-        <v>292</v>
+        <v>271</v>
       </c>
       <c r="D51" s="28"/>
       <c r="E51" s="26"/>
@@ -2581,13 +2668,13 @@
         <v>23</v>
       </c>
       <c r="B52" s="24" t="s">
-        <v>249</v>
+        <v>335</v>
       </c>
       <c r="C52" s="26" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="D52" s="26" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E52" s="26"/>
     </row>
@@ -2596,13 +2683,13 @@
         <v>24</v>
       </c>
       <c r="B53" s="24" t="s">
-        <v>225</v>
+        <v>334</v>
       </c>
       <c r="C53" s="26" t="s">
-        <v>294</v>
+        <v>273</v>
       </c>
       <c r="D53" s="26" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E53" s="26"/>
     </row>
@@ -2612,7 +2699,7 @@
       </c>
       <c r="B54" s="26"/>
       <c r="C54" s="26" t="s">
-        <v>295</v>
+        <v>274</v>
       </c>
       <c r="D54" s="26"/>
       <c r="E54" s="26"/>
@@ -2621,9 +2708,11 @@
       <c r="A55" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="B55" s="26"/>
+      <c r="B55" s="26">
+        <v>1</v>
+      </c>
       <c r="C55" s="26" t="s">
-        <v>296</v>
+        <v>275</v>
       </c>
       <c r="D55" s="26"/>
       <c r="E55" s="25"/>
@@ -2641,9 +2730,11 @@
       <c r="A57" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="B57" s="26"/>
+      <c r="B57" s="26" t="s">
+        <v>336</v>
+      </c>
       <c r="C57" s="26" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
       <c r="D57" s="25"/>
       <c r="E57" s="28"/>
@@ -2662,13 +2753,13 @@
         <v>38</v>
       </c>
       <c r="B59" s="24" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="C59" s="26" t="s">
-        <v>297</v>
+        <v>276</v>
       </c>
       <c r="D59" s="26" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E59" s="26"/>
     </row>
@@ -2677,13 +2768,13 @@
         <v>39</v>
       </c>
       <c r="B60" s="24" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="C60" s="26" t="s">
-        <v>298</v>
+        <v>277</v>
       </c>
       <c r="D60" s="26" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E60" s="26"/>
     </row>
@@ -2692,13 +2783,13 @@
         <v>40</v>
       </c>
       <c r="B61" s="24" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="C61" s="26" t="s">
-        <v>299</v>
+        <v>278</v>
       </c>
       <c r="D61" s="26" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E61" s="26"/>
     </row>
@@ -2707,10 +2798,10 @@
         <v>41</v>
       </c>
       <c r="B62" s="24" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="C62" s="26" t="s">
-        <v>300</v>
+        <v>279</v>
       </c>
       <c r="D62" s="26" t="s">
         <v>166</v>
@@ -2722,13 +2813,13 @@
         <v>42</v>
       </c>
       <c r="B63" s="24" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="C63" s="26" t="s">
-        <v>301</v>
+        <v>280</v>
       </c>
       <c r="D63" s="24" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E63" s="26"/>
     </row>
@@ -2740,10 +2831,10 @@
         <v>29521</v>
       </c>
       <c r="C64" s="26" t="s">
-        <v>302</v>
+        <v>281</v>
       </c>
       <c r="D64" s="24" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E64" s="26"/>
     </row>
@@ -2751,11 +2842,11 @@
       <c r="A65" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="B65" s="24" t="s">
-        <v>232</v>
+      <c r="B65" s="24">
+        <v>481115671</v>
       </c>
       <c r="C65" s="26" t="s">
-        <v>303</v>
+        <v>282</v>
       </c>
       <c r="D65" s="24" t="s">
         <v>150</v>
@@ -2764,10 +2855,10 @@
     </row>
     <row r="66" spans="1:5" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A66" s="24" t="s">
-        <v>184</v>
+        <v>337</v>
       </c>
       <c r="B66" s="24" t="s">
-        <v>233</v>
+        <v>338</v>
       </c>
       <c r="C66" s="26"/>
       <c r="D66" s="24" t="s">
@@ -2779,9 +2870,11 @@
       <c r="A67" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="B67" s="24"/>
+      <c r="B67" s="24" t="s">
+        <v>339</v>
+      </c>
       <c r="C67" s="26" t="s">
-        <v>304</v>
+        <v>283</v>
       </c>
       <c r="D67" s="24"/>
       <c r="E67" s="26"/>
@@ -2791,26 +2884,25 @@
         <v>46</v>
       </c>
       <c r="B68" s="24" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="C68" s="26" t="s">
-        <v>305</v>
-      </c>
-      <c r="D68" s="24" t="s">
-        <v>151</v>
+        <v>284</v>
+      </c>
+      <c r="D68" s="34" t="s">
+        <v>150</v>
       </c>
       <c r="E68" s="26"/>
     </row>
     <row r="69" spans="1:5" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A69" s="24" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B69" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="C69" s="26"/>
-      <c r="D69" s="34" t="s">
-        <v>150</v>
+      <c r="D69" s="24" t="s">
+        <v>151</v>
       </c>
       <c r="E69" s="26"/>
     </row>
@@ -2818,9 +2910,11 @@
       <c r="A70" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="B70" s="24"/>
+      <c r="B70" s="24" t="s">
+        <v>224</v>
+      </c>
       <c r="C70" s="26" t="s">
-        <v>306</v>
+        <v>285</v>
       </c>
       <c r="D70" s="35"/>
       <c r="E70" s="26"/>
@@ -2830,10 +2924,10 @@
         <v>49</v>
       </c>
       <c r="B71" s="24" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="C71" s="26" t="s">
-        <v>307</v>
+        <v>286</v>
       </c>
       <c r="D71" s="26" t="s">
         <v>150</v>
@@ -2845,7 +2939,7 @@
         <v>154</v>
       </c>
       <c r="B72" s="24" t="s">
-        <v>237</v>
+        <v>340</v>
       </c>
       <c r="C72" s="26"/>
       <c r="D72" s="26" t="s">
@@ -2858,10 +2952,10 @@
         <v>50</v>
       </c>
       <c r="B73" s="24" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="C73" s="26" t="s">
-        <v>308</v>
+        <v>287</v>
       </c>
       <c r="D73" s="26" t="s">
         <v>155</v>
@@ -2873,10 +2967,10 @@
         <v>152</v>
       </c>
       <c r="B74" s="24" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="C74" s="26" t="s">
-        <v>328</v>
+        <v>307</v>
       </c>
       <c r="D74" s="26" t="s">
         <v>150</v>
@@ -2888,7 +2982,7 @@
         <v>153</v>
       </c>
       <c r="B75" s="24" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="C75" s="26"/>
       <c r="D75" s="26" t="s">
@@ -2901,10 +2995,10 @@
         <v>134</v>
       </c>
       <c r="B76" s="24" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="C76" s="26" t="s">
-        <v>329</v>
+        <v>308</v>
       </c>
       <c r="D76" s="26" t="s">
         <v>150</v>
@@ -2916,10 +3010,10 @@
         <v>135</v>
       </c>
       <c r="B77" s="24" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="C77" s="26" t="s">
-        <v>330</v>
+        <v>309</v>
       </c>
       <c r="D77" s="26" t="s">
         <v>151</v>
@@ -2932,7 +3026,7 @@
       </c>
       <c r="B78" s="26"/>
       <c r="C78" s="26" t="s">
-        <v>309</v>
+        <v>288</v>
       </c>
       <c r="D78" s="26"/>
       <c r="E78" s="26"/>
@@ -2943,7 +3037,7 @@
       </c>
       <c r="B79" s="18"/>
       <c r="C79" s="18" t="s">
-        <v>310</v>
+        <v>289</v>
       </c>
       <c r="D79" s="18"/>
       <c r="E79" s="18"/>
@@ -2954,7 +3048,7 @@
       </c>
       <c r="B80" s="19"/>
       <c r="C80" s="19" t="s">
-        <v>311</v>
+        <v>290</v>
       </c>
       <c r="D80" s="19"/>
       <c r="E80" s="19"/>
@@ -2963,9 +3057,11 @@
       <c r="A81" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="B81" s="19"/>
+      <c r="B81" s="19" t="s">
+        <v>341</v>
+      </c>
       <c r="C81" s="19" t="s">
-        <v>297</v>
+        <v>276</v>
       </c>
       <c r="D81" s="19"/>
       <c r="E81" s="19"/>
@@ -2974,9 +3070,11 @@
       <c r="A82" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="B82" s="19"/>
+      <c r="B82" s="19" t="s">
+        <v>342</v>
+      </c>
       <c r="C82" s="19" t="s">
-        <v>298</v>
+        <v>277</v>
       </c>
       <c r="D82" s="19"/>
       <c r="E82" s="19"/>
@@ -2989,9 +3087,11 @@
       <c r="A83" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="B83" s="19"/>
+      <c r="B83" s="19" t="s">
+        <v>343</v>
+      </c>
       <c r="C83" s="19" t="s">
-        <v>299</v>
+        <v>278</v>
       </c>
       <c r="D83" s="19"/>
       <c r="E83" s="19"/>
@@ -3006,7 +3106,7 @@
       </c>
       <c r="B84" s="19"/>
       <c r="C84" s="19" t="s">
-        <v>300</v>
+        <v>279</v>
       </c>
       <c r="D84" s="19"/>
       <c r="E84" s="19"/>
@@ -3020,10 +3120,10 @@
         <v>56</v>
       </c>
       <c r="B85" s="21" t="s">
-        <v>243</v>
+        <v>344</v>
       </c>
       <c r="C85" s="19" t="s">
-        <v>301</v>
+        <v>280</v>
       </c>
       <c r="D85" s="19" t="s">
         <v>162</v>
@@ -3034,13 +3134,13 @@
       <c r="H85" s="3"/>
       <c r="I85" s="3"/>
     </row>
-    <row r="86" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="20" t="s">
-        <v>31</v>
+        <v>324</v>
       </c>
       <c r="B86" s="18"/>
       <c r="C86" s="18" t="s">
-        <v>312</v>
+        <v>291</v>
       </c>
       <c r="D86" s="18"/>
       <c r="E86" s="18"/>
@@ -3055,7 +3155,7 @@
       </c>
       <c r="B87" s="19"/>
       <c r="C87" s="19" t="s">
-        <v>313</v>
+        <v>292</v>
       </c>
       <c r="D87" s="19"/>
       <c r="E87" s="19"/>
@@ -3070,7 +3170,7 @@
       </c>
       <c r="B88" s="19"/>
       <c r="C88" s="19" t="s">
-        <v>314</v>
+        <v>293</v>
       </c>
       <c r="D88" s="19"/>
       <c r="E88" s="19"/>
@@ -3085,7 +3185,7 @@
       </c>
       <c r="B89" s="19"/>
       <c r="C89" s="19" t="s">
-        <v>315</v>
+        <v>294</v>
       </c>
       <c r="D89" s="19"/>
       <c r="E89" s="19"/>
@@ -3100,7 +3200,7 @@
       </c>
       <c r="B90" s="19"/>
       <c r="C90" s="19" t="s">
-        <v>316</v>
+        <v>295</v>
       </c>
       <c r="D90" s="19"/>
       <c r="E90" s="19"/>
@@ -3115,7 +3215,7 @@
       </c>
       <c r="B91" s="18"/>
       <c r="C91" s="18" t="s">
-        <v>317</v>
+        <v>296</v>
       </c>
       <c r="D91" s="18"/>
       <c r="E91" s="18"/>
@@ -3129,10 +3229,10 @@
         <v>143</v>
       </c>
       <c r="B92" s="21" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="C92" s="19" t="s">
-        <v>318</v>
+        <v>297</v>
       </c>
       <c r="D92" s="19" t="s">
         <v>163</v>
@@ -3149,7 +3249,7 @@
       </c>
       <c r="B93" s="18"/>
       <c r="C93" s="18" t="s">
-        <v>319</v>
+        <v>298</v>
       </c>
       <c r="D93" s="18"/>
       <c r="E93" s="18"/>
@@ -3162,9 +3262,11 @@
       <c r="A94" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="B94" s="19"/>
+      <c r="B94" s="19" t="s">
+        <v>345</v>
+      </c>
       <c r="C94" s="19" t="s">
-        <v>320</v>
+        <v>299</v>
       </c>
       <c r="D94" s="19"/>
       <c r="E94" s="19"/>
@@ -3178,10 +3280,10 @@
         <v>145</v>
       </c>
       <c r="B95" s="21" t="s">
-        <v>254</v>
+        <v>233</v>
       </c>
       <c r="C95" s="19" t="s">
-        <v>321</v>
+        <v>300</v>
       </c>
       <c r="D95" s="19" t="s">
         <v>156</v>
@@ -3197,10 +3299,10 @@
         <v>146</v>
       </c>
       <c r="B96" s="21" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C96" s="19" t="s">
-        <v>322</v>
+        <v>301</v>
       </c>
       <c r="D96" s="19" t="s">
         <v>158</v>
@@ -3215,9 +3317,11 @@
       <c r="A97" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="B97" s="21"/>
+      <c r="B97" s="21" t="s">
+        <v>346</v>
+      </c>
       <c r="C97" s="19" t="s">
-        <v>323</v>
+        <v>302</v>
       </c>
       <c r="D97" s="19"/>
       <c r="E97" s="19"/>
@@ -3234,7 +3338,7 @@
         <v>21905</v>
       </c>
       <c r="C98" s="19" t="s">
-        <v>324</v>
+        <v>303</v>
       </c>
       <c r="D98" s="19" t="s">
         <v>159</v>
@@ -3357,7 +3461,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/shared/ojb-resources-common/src/main/resources/ssp/Case_Filing_Decision_Reporting/artifacts/service_model/information_model/IEPD/documentation/XSL-tmp/AlaskaCriminalCaseMapping.xlsx
+++ b/shared/ojb-resources-common/src/main/resources/ssp/Case_Filing_Decision_Reporting/artifacts/service_model/information_model/IEPD/documentation/XSL-tmp/AlaskaCriminalCaseMapping.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="349">
   <si>
     <t>ATN [Arrest Tracking Number]</t>
   </si>
@@ -1062,6 +1062,24 @@
   </si>
   <si>
     <t>AK</t>
+  </si>
+  <si>
+    <t>      </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sec. 11.61.195. Misconduct involving weapons in the second degree. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>   (a) A person commits the crime of misconduct involving weapons in the second degree if the person knowingly   (1) possesses a firearm during the commission of an offense under AS 11.71.010 - 11.71.040;</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1363,7 +1381,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="90">
+  <cellStyleXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
@@ -1454,8 +1472,9 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1568,8 +1587,9 @@
     <xf numFmtId="49" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="90"/>
   </cellXfs>
-  <cellStyles count="90">
+  <cellStyles count="91">
     <cellStyle name="Accent1 - 20%" xfId="3"/>
     <cellStyle name="Accent1 - 40%" xfId="4"/>
     <cellStyle name="Accent1 - 60%" xfId="5"/>
@@ -1655,6 +1675,7 @@
     <cellStyle name="Hyperlink" xfId="84" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="86" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="88" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="90" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal 3" xfId="24"/>
@@ -1960,8 +1981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2693,11 +2714,13 @@
       </c>
       <c r="E53" s="26"/>
     </row>
-    <row r="54" spans="1:5" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" s="2" customFormat="1" ht="175.5" x14ac:dyDescent="0.25">
       <c r="A54" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="B54" s="26"/>
+      <c r="B54" s="24" t="s">
+        <v>348</v>
+      </c>
       <c r="C54" s="26" t="s">
         <v>274</v>
       </c>
@@ -2708,8 +2731,8 @@
       <c r="A55" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="B55" s="26">
-        <v>1</v>
+      <c r="B55" s="38" t="s">
+        <v>347</v>
       </c>
       <c r="C55" s="26" t="s">
         <v>275</v>
@@ -3209,7 +3232,7 @@
       <c r="H90" s="3"/>
       <c r="I90" s="3"/>
     </row>
-    <row r="91" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="20" t="s">
         <v>161</v>
       </c>
@@ -3460,8 +3483,11 @@
       <c r="I108" s="3"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B55" r:id="rId1" location="11.71.010" display="http://www.legis.state.ak.us/basis/statutes.asp - 11.71.010"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/shared/ojb-resources-common/src/main/resources/ssp/Case_Filing_Decision_Reporting/artifacts/service_model/information_model/IEPD/documentation/XSL-tmp/AlaskaCriminalCaseMapping.xlsx
+++ b/shared/ojb-resources-common/src/main/resources/ssp/Case_Filing_Decision_Reporting/artifacts/service_model/information_model/IEPD/documentation/XSL-tmp/AlaskaCriminalCaseMapping.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="350">
   <si>
     <t>ATN [Arrest Tracking Number]</t>
   </si>
@@ -1016,16 +1016,10 @@
     <t>Class B</t>
   </si>
   <si>
-    <t>11.61.195(a)(1)</t>
-  </si>
-  <si>
     <t>Derived from JW Statute Code and Statue Code Section.</t>
   </si>
   <si>
     <t>AS</t>
-  </si>
-  <si>
-    <t>Robbery 1 - Armed with Deadly Weapon</t>
   </si>
   <si>
     <t>61.195(a)(1)</t>
@@ -1080,6 +1074,15 @@
       </rPr>
       <t>   (a) A person commits the crime of misconduct involving weapons in the second degree if the person knowingly   (1) possesses a firearm during the commission of an offense under AS 11.71.010 - 11.71.040;</t>
     </r>
+  </si>
+  <si>
+    <t>Misconduct w/ Weapons 2 - Re Drug Crime</t>
+  </si>
+  <si>
+    <t>Charge Statute Code Jurisdiction</t>
+  </si>
+  <si>
+    <t>AS 11.61.195(a)(1)</t>
   </si>
 </sst>
 </file>
@@ -1381,7 +1384,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="91">
+  <cellStyleXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
@@ -1472,9 +1475,8 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1587,9 +1589,8 @@
     <xf numFmtId="49" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="90"/>
   </cellXfs>
-  <cellStyles count="91">
+  <cellStyles count="90">
     <cellStyle name="Accent1 - 20%" xfId="3"/>
     <cellStyle name="Accent1 - 40%" xfId="4"/>
     <cellStyle name="Accent1 - 60%" xfId="5"/>
@@ -1675,7 +1676,6 @@
     <cellStyle name="Hyperlink" xfId="84" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="86" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="88" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="90" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal 3" xfId="24"/>
@@ -1981,8 +1981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2646,14 +2646,14 @@
         <v>182</v>
       </c>
       <c r="B49" s="24" t="s">
-        <v>331</v>
+        <v>349</v>
       </c>
       <c r="C49" s="26"/>
       <c r="D49" s="32" t="s">
         <v>168</v>
       </c>
       <c r="E49" s="26" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="50" spans="1:5" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
@@ -2673,10 +2673,10 @@
     </row>
     <row r="51" spans="1:5" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A51" s="24" t="s">
-        <v>19</v>
+        <v>348</v>
       </c>
       <c r="B51" s="24" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C51" s="26" t="s">
         <v>271</v>
@@ -2689,7 +2689,7 @@
         <v>23</v>
       </c>
       <c r="B52" s="24" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C52" s="26" t="s">
         <v>272</v>
@@ -2704,7 +2704,7 @@
         <v>24</v>
       </c>
       <c r="B53" s="24" t="s">
-        <v>334</v>
+        <v>347</v>
       </c>
       <c r="C53" s="26" t="s">
         <v>273</v>
@@ -2719,7 +2719,7 @@
         <v>25</v>
       </c>
       <c r="B54" s="24" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C54" s="26" t="s">
         <v>274</v>
@@ -2731,8 +2731,8 @@
       <c r="A55" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="B55" s="38" t="s">
-        <v>347</v>
+      <c r="B55" s="24" t="s">
+        <v>345</v>
       </c>
       <c r="C55" s="26" t="s">
         <v>275</v>
@@ -2754,7 +2754,7 @@
         <v>133</v>
       </c>
       <c r="B57" s="26" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C57" s="26" t="s">
         <v>306</v>
@@ -2878,10 +2878,10 @@
     </row>
     <row r="66" spans="1:5" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A66" s="24" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B66" s="24" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C66" s="26"/>
       <c r="D66" s="24" t="s">
@@ -2894,7 +2894,7 @@
         <v>48</v>
       </c>
       <c r="B67" s="24" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C67" s="26" t="s">
         <v>283</v>
@@ -2962,7 +2962,7 @@
         <v>154</v>
       </c>
       <c r="B72" s="24" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C72" s="26"/>
       <c r="D72" s="26" t="s">
@@ -3081,7 +3081,7 @@
         <v>52</v>
       </c>
       <c r="B81" s="19" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C81" s="19" t="s">
         <v>276</v>
@@ -3094,7 +3094,7 @@
         <v>53</v>
       </c>
       <c r="B82" s="19" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C82" s="19" t="s">
         <v>277</v>
@@ -3111,7 +3111,7 @@
         <v>54</v>
       </c>
       <c r="B83" s="19" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C83" s="19" t="s">
         <v>278</v>
@@ -3143,7 +3143,7 @@
         <v>56</v>
       </c>
       <c r="B85" s="21" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C85" s="19" t="s">
         <v>280</v>
@@ -3286,7 +3286,7 @@
         <v>144</v>
       </c>
       <c r="B94" s="19" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C94" s="19" t="s">
         <v>299</v>
@@ -3341,7 +3341,7 @@
         <v>147</v>
       </c>
       <c r="B97" s="21" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C97" s="19" t="s">
         <v>302</v>

--- a/shared/ojb-resources-common/src/main/resources/ssp/Case_Filing_Decision_Reporting/artifacts/service_model/information_model/IEPD/documentation/XSL-tmp/AlaskaCriminalCaseMapping.xlsx
+++ b/shared/ojb-resources-common/src/main/resources/ssp/Case_Filing_Decision_Reporting/artifacts/service_model/information_model/IEPD/documentation/XSL-tmp/AlaskaCriminalCaseMapping.xlsx
@@ -11,16 +11,11 @@
     <sheet name="Court Case Filing Update" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="362">
   <si>
     <t>ATN [Arrest Tracking Number]</t>
   </si>
@@ -553,9 +548,6 @@
     <t>Justware (JW) Mapping</t>
   </si>
   <si>
-    <t>ATN Category</t>
-  </si>
-  <si>
     <t>Date of Offense (start date)</t>
   </si>
   <si>
@@ -566,9 +558,6 @@
   </si>
   <si>
     <t>JW does not currently have this element.  Should we add?  DL: Question posed to BL on whether they carry offense separate from charge information.</t>
-  </si>
-  <si>
-    <t>Uniform Offense Code</t>
   </si>
   <si>
     <t>State ID Category</t>
@@ -1017,12 +1006,6 @@
   </si>
   <si>
     <t>Derived from JW Statute Code and Statue Code Section.</t>
-  </si>
-  <si>
-    <t>AS</t>
-  </si>
-  <si>
-    <t>61.195(a)(1)</t>
   </si>
   <si>
     <t>True if DV related charge</t>
@@ -1082,7 +1065,55 @@
     <t>Charge Statute Code Jurisdiction</t>
   </si>
   <si>
-    <t>AS 11.61.195(a)(1)</t>
+    <t>/cfd-doc:CourtCaseFilingDocument/nc:DocumentCategoryText</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <t>/cfd-ext:CaseFilingDecisionAttachment/nc:DocumentBinary</t>
+  </si>
+  <si>
+    <t>Document Attachment</t>
+  </si>
+  <si>
+    <t>Identifier Category</t>
+  </si>
+  <si>
+    <t>Not needed in message</t>
+  </si>
+  <si>
+    <t>Need enough information for venue</t>
+  </si>
+  <si>
+    <t>District Court Felony, Superior Court Felony</t>
+  </si>
+  <si>
+    <t>Relationship to Document Category Name?</t>
+  </si>
+  <si>
+    <t>3AN</t>
+  </si>
+  <si>
+    <t>MOA can't send</t>
+  </si>
+  <si>
+    <t>Case Filing Decision Report Element</t>
+  </si>
+  <si>
+    <t>8.30.105(A)(1)(DV)</t>
+  </si>
+  <si>
+    <t>AMC830110A</t>
+  </si>
+  <si>
+    <t>AMC</t>
+  </si>
+  <si>
+    <t>1967-08-15 &amp; time</t>
+  </si>
+  <si>
+    <t>Uniform Offense Code (UOCT or UMOT)</t>
   </si>
 </sst>
 </file>
@@ -1347,7 +1378,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1383,8 +1414,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="90">
+  <cellStyleXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
@@ -1475,8 +1519,9 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1523,9 +1568,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1535,9 +1577,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1589,8 +1628,50 @@
     <xf numFmtId="49" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="90">
+  <cellStyles count="91">
     <cellStyle name="Accent1 - 20%" xfId="3"/>
     <cellStyle name="Accent1 - 40%" xfId="4"/>
     <cellStyle name="Accent1 - 60%" xfId="5"/>
@@ -1678,6 +1759,7 @@
     <cellStyle name="Hyperlink" xfId="88" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 2 2" xfId="90"/>
     <cellStyle name="Normal 3" xfId="24"/>
     <cellStyle name="Normal 4" xfId="1"/>
     <cellStyle name="Sheet Title" xfId="25"/>
@@ -1979,1424 +2061,1539 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I108"/>
+  <dimension ref="A1:J109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.7109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23" style="1" customWidth="1"/>
-    <col min="3" max="4" width="57.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="37" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="16.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23" style="1" customWidth="1"/>
+    <col min="4" max="5" width="57.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="37" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="B1" s="17" t="s">
+    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="37" t="s">
+        <v>175</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>356</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="43"/>
+      <c r="B2" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+    </row>
+    <row r="3" spans="1:6" s="19" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>353</v>
+      </c>
+      <c r="B3" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="43"/>
+      <c r="B4" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>308</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="E4" s="26"/>
+      <c r="F4" s="18"/>
+    </row>
+    <row r="5" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="43"/>
+      <c r="B5" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>309</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>234</v>
+      </c>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="43"/>
+      <c r="B6" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="35" t="s">
+        <v>310</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>235</v>
+      </c>
+      <c r="E6" s="21"/>
+      <c r="F6" s="18"/>
+    </row>
+    <row r="7" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="43"/>
+      <c r="B7" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="35" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>302</v>
+      </c>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="43"/>
+      <c r="B8" s="39" t="s">
+        <v>140</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>311</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>303</v>
+      </c>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="43"/>
+      <c r="B9" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+    </row>
+    <row r="10" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="43"/>
+      <c r="B10" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="F10" s="18"/>
+    </row>
+    <row r="11" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="43"/>
+      <c r="B11" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="F11" s="18"/>
+    </row>
+    <row r="12" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="43"/>
+      <c r="B12" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>313</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="E12" s="21"/>
+      <c r="F12" s="18"/>
+    </row>
+    <row r="13" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="43"/>
+      <c r="B13" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="F13" s="18"/>
+    </row>
+    <row r="14" spans="1:6" ht="51" x14ac:dyDescent="0.25">
+      <c r="A14" s="43"/>
+      <c r="B14" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>313</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="43" t="s">
+        <v>355</v>
+      </c>
+      <c r="B15" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>314</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="E15" s="18"/>
+    </row>
+    <row r="16" spans="1:6" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="44"/>
+      <c r="B16" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="22">
+        <v>5656787</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>242</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="F16" s="20"/>
+    </row>
+    <row r="17" spans="1:6" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="44"/>
+      <c r="B17" s="46" t="s">
+        <v>349</v>
+      </c>
+      <c r="C17" s="47" t="s">
+        <v>211</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>242</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="F17" s="24"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="43"/>
+      <c r="B18" s="38" t="s">
+        <v>149</v>
+      </c>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+    </row>
+    <row r="19" spans="1:6" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A19" s="44"/>
+      <c r="B19" s="40" t="s">
+        <v>177</v>
+      </c>
+      <c r="C19" s="35" t="s">
+        <v>315</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>243</v>
+      </c>
+      <c r="E19" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="F19" s="24"/>
+    </row>
+    <row r="20" spans="1:6" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A20" s="44"/>
+      <c r="B20" s="40" t="s">
+        <v>178</v>
+      </c>
+      <c r="C20" s="35" t="s">
+        <v>315</v>
+      </c>
+      <c r="D20" s="24"/>
+      <c r="E20" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="F20" s="24"/>
+    </row>
+    <row r="21" spans="1:6" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+      <c r="A21" s="45" t="s">
+        <v>350</v>
+      </c>
+      <c r="B21" s="45" t="s">
+        <v>169</v>
+      </c>
+      <c r="C21" s="22"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="22" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+      <c r="A22" s="45" t="s">
+        <v>350</v>
+      </c>
+      <c r="B22" s="45" t="s">
+        <v>317</v>
+      </c>
+      <c r="C22" s="22"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="F22" s="22" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+      <c r="A23" s="44" t="s">
+        <v>351</v>
+      </c>
+      <c r="B23" s="40" t="s">
+        <v>172</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>316</v>
+      </c>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="F23" s="22" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="43"/>
+      <c r="B24" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+    </row>
+    <row r="25" spans="1:6" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="44"/>
+      <c r="B25" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>212</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>244</v>
+      </c>
+      <c r="E25" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="F25" s="23"/>
+    </row>
+    <row r="26" spans="1:6" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="44"/>
+      <c r="B26" s="40" t="s">
+        <v>136</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>352</v>
+      </c>
+      <c r="D26" s="24" t="s">
+        <v>245</v>
+      </c>
+      <c r="E26" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="F26" s="24"/>
+    </row>
+    <row r="27" spans="1:6" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A27" s="44"/>
+      <c r="B27" s="40" t="s">
+        <v>137</v>
+      </c>
+      <c r="C27" s="35" t="s">
+        <v>318</v>
+      </c>
+      <c r="D27" s="24" t="s">
+        <v>246</v>
+      </c>
+      <c r="E27" s="24" t="s">
+        <v>197</v>
+      </c>
+      <c r="F27" s="24"/>
+    </row>
+    <row r="28" spans="1:6" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28" s="44"/>
+      <c r="B28" s="48" t="s">
+        <v>138</v>
+      </c>
+      <c r="C28" s="49" t="s">
+        <v>312</v>
+      </c>
+      <c r="D28" s="49" t="s">
+        <v>247</v>
+      </c>
+      <c r="E28" s="34" t="s">
+        <v>205</v>
+      </c>
+      <c r="F28" s="23"/>
+    </row>
+    <row r="29" spans="1:6" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A29" s="44"/>
+      <c r="B29" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="C29" s="35" t="s">
+        <v>360</v>
+      </c>
+      <c r="D29" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="E29" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="F29" s="23"/>
+    </row>
+    <row r="30" spans="1:6" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A30" s="44"/>
+      <c r="B30" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>228</v>
+      </c>
+      <c r="D30" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="E30" s="24" t="s">
+        <v>196</v>
+      </c>
+      <c r="F30" s="24"/>
+    </row>
+    <row r="31" spans="1:6" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A31" s="44"/>
+      <c r="B31" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="22" t="s">
+        <v>229</v>
+      </c>
+      <c r="D31" s="24" t="s">
+        <v>250</v>
+      </c>
+      <c r="E31" s="24" t="s">
+        <v>195</v>
+      </c>
+      <c r="F31" s="24"/>
+    </row>
+    <row r="32" spans="1:6" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A32" s="44"/>
+      <c r="B32" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>354</v>
+      </c>
+      <c r="D32" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="E32" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="F32" s="23"/>
+    </row>
+    <row r="33" spans="1:6" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+      <c r="A33" s="44"/>
+      <c r="B33" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="C33" s="22" t="s">
+        <v>319</v>
+      </c>
+      <c r="D33" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="E33" s="29" t="s">
+        <v>230</v>
+      </c>
+      <c r="F33" s="24"/>
+    </row>
+    <row r="34" spans="1:6" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A34" s="44"/>
+      <c r="B34" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="D34" s="24" t="s">
+        <v>253</v>
+      </c>
+      <c r="E34" s="25"/>
+      <c r="F34" s="24" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+      <c r="A35" s="44"/>
+      <c r="B35" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="C35" s="22" t="s">
+        <v>321</v>
+      </c>
+      <c r="D35" s="24" t="s">
+        <v>254</v>
+      </c>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+    </row>
+    <row r="36" spans="1:6" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+      <c r="A36" s="44"/>
+      <c r="B36" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="C36" s="22" t="s">
+        <v>323</v>
+      </c>
+      <c r="D36" s="24" t="s">
+        <v>255</v>
+      </c>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
+    </row>
+    <row r="37" spans="1:6" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+      <c r="A37" s="44"/>
+      <c r="B37" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="C37" s="22" t="s">
+        <v>326</v>
+      </c>
+      <c r="D37" s="24" t="s">
+        <v>256</v>
+      </c>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24"/>
+    </row>
+    <row r="38" spans="1:6" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+      <c r="A38" s="44"/>
+      <c r="B38" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="C38" s="22" t="s">
         <v>222</v>
       </c>
-      <c r="C1" s="17" t="s">
-        <v>176</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
+      <c r="D38" s="24" t="s">
+        <v>257</v>
+      </c>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
+    </row>
+    <row r="39" spans="1:6" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A39" s="44"/>
+      <c r="B39" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="C39" s="22" t="s">
+        <v>324</v>
+      </c>
+      <c r="D39" s="24" t="s">
+        <v>258</v>
+      </c>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
+    </row>
+    <row r="40" spans="1:6" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+      <c r="A40" s="44"/>
+      <c r="B40" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="C40" s="22" t="s">
+        <v>323</v>
+      </c>
+      <c r="D40" s="24" t="s">
+        <v>259</v>
+      </c>
+      <c r="E40" s="27" t="s">
+        <v>232</v>
+      </c>
+      <c r="F40" s="27"/>
+    </row>
+    <row r="41" spans="1:6" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+      <c r="A41" s="44"/>
+      <c r="B41" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="C41" s="22" t="s">
+        <v>325</v>
+      </c>
+      <c r="D41" s="24" t="s">
+        <v>260</v>
+      </c>
+      <c r="E41" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="F41" s="24"/>
+    </row>
+    <row r="42" spans="1:6" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+      <c r="A42" s="44"/>
+      <c r="B42" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="C42" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="D42" s="24" t="s">
+        <v>261</v>
+      </c>
+      <c r="E42" s="24"/>
+      <c r="F42" s="24"/>
+    </row>
+    <row r="43" spans="1:6" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A43" s="44"/>
+      <c r="B43" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43" s="22" t="s">
+        <v>327</v>
+      </c>
+      <c r="D43" s="24" t="s">
+        <v>262</v>
+      </c>
+      <c r="E43" s="24"/>
+      <c r="F43" s="24"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="43"/>
+      <c r="B44" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
+    </row>
+    <row r="45" spans="1:6" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A45" s="44"/>
+      <c r="B45" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="C45" s="24"/>
+      <c r="D45" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="E45" s="24"/>
+      <c r="F45" s="24"/>
+    </row>
+    <row r="46" spans="1:6" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A46" s="44"/>
+      <c r="B46" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46" s="35" t="s">
+        <v>310</v>
+      </c>
+      <c r="D46" s="24" t="s">
+        <v>264</v>
+      </c>
+      <c r="E46" s="24"/>
+      <c r="F46" s="24"/>
+    </row>
+    <row r="47" spans="1:6" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A47" s="44"/>
+      <c r="B47" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47" s="22">
+        <v>2</v>
+      </c>
+      <c r="D47" s="24" t="s">
+        <v>265</v>
+      </c>
+      <c r="E47" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="F47" s="24"/>
+    </row>
+    <row r="48" spans="1:6" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A48" s="44"/>
+      <c r="B48" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="C48" s="22" t="s">
+        <v>328</v>
+      </c>
+      <c r="D48" s="24" t="s">
+        <v>266</v>
+      </c>
+      <c r="E48" s="24" t="s">
+        <v>193</v>
+      </c>
+      <c r="F48" s="24"/>
+    </row>
+    <row r="49" spans="1:6" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A49" s="44"/>
+      <c r="B49" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C49" s="22" t="s">
+        <v>213</v>
+      </c>
+      <c r="D49" s="24" t="s">
+        <v>267</v>
+      </c>
+      <c r="E49" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="F49" s="23" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A50" s="44"/>
+      <c r="B50" s="41" t="s">
+        <v>361</v>
+      </c>
+      <c r="C50" s="22" t="s">
+        <v>358</v>
+      </c>
+      <c r="D50" s="24"/>
+      <c r="E50" s="30" t="s">
+        <v>168</v>
+      </c>
+      <c r="F50" s="24" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A51" s="44"/>
+      <c r="B51" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="C51" s="22">
         <v>11</v>
       </c>
-      <c r="B3" s="37" t="s">
-        <v>310</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>235</v>
-      </c>
-      <c r="D3" s="28"/>
-      <c r="E3" s="19"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="37" t="s">
-        <v>311</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>236</v>
-      </c>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="37" t="s">
-        <v>312</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>237</v>
-      </c>
-      <c r="D5" s="23"/>
-      <c r="E5" s="19"/>
-    </row>
-    <row r="6" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="37" t="b">
-        <v>1</v>
-      </c>
-      <c r="C6" s="19" t="s">
+      <c r="D51" s="24" t="s">
+        <v>268</v>
+      </c>
+      <c r="E51" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="F51" s="24"/>
+    </row>
+    <row r="52" spans="1:6" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+      <c r="A52" s="44"/>
+      <c r="B52" s="40" t="s">
+        <v>344</v>
+      </c>
+      <c r="C52" s="22" t="s">
+        <v>359</v>
+      </c>
+      <c r="D52" s="24" t="s">
+        <v>269</v>
+      </c>
+      <c r="E52" s="26"/>
+      <c r="F52" s="24"/>
+    </row>
+    <row r="53" spans="1:6" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+      <c r="A53" s="44"/>
+      <c r="B53" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="C53" s="22" t="s">
+        <v>357</v>
+      </c>
+      <c r="D53" s="24" t="s">
+        <v>270</v>
+      </c>
+      <c r="E53" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="F53" s="24"/>
+    </row>
+    <row r="54" spans="1:6" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A54" s="44"/>
+      <c r="B54" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="C54" s="22" t="s">
+        <v>343</v>
+      </c>
+      <c r="D54" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="E54" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="F54" s="24"/>
+    </row>
+    <row r="55" spans="1:6" s="2" customFormat="1" ht="175.5" x14ac:dyDescent="0.25">
+      <c r="A55" s="44"/>
+      <c r="B55" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="C55" s="22" t="s">
+        <v>342</v>
+      </c>
+      <c r="D55" s="24" t="s">
+        <v>272</v>
+      </c>
+      <c r="E55" s="24"/>
+      <c r="F55" s="24"/>
+    </row>
+    <row r="56" spans="1:6" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A56" s="44"/>
+      <c r="B56" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="C56" s="22" t="s">
+        <v>341</v>
+      </c>
+      <c r="D56" s="24" t="s">
+        <v>273</v>
+      </c>
+      <c r="E56" s="24"/>
+      <c r="F56" s="23"/>
+    </row>
+    <row r="57" spans="1:6" s="2" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="44"/>
+      <c r="B57" s="40" t="s">
+        <v>167</v>
+      </c>
+      <c r="C57" s="24"/>
+      <c r="D57" s="24"/>
+      <c r="E57" s="23"/>
+      <c r="F57" s="23"/>
+    </row>
+    <row r="58" spans="1:6" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A58" s="44"/>
+      <c r="B58" s="40" t="s">
+        <v>133</v>
+      </c>
+      <c r="C58" s="24" t="s">
+        <v>330</v>
+      </c>
+      <c r="D58" s="24" t="s">
         <v>304</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>313</v>
-      </c>
-      <c r="C7" s="19" t="s">
+      <c r="E58" s="23"/>
+      <c r="F58" s="26"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="43"/>
+      <c r="B59" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" s="17"/>
+      <c r="D59" s="17"/>
+      <c r="E59" s="17"/>
+      <c r="F59" s="17"/>
+    </row>
+    <row r="60" spans="1:6" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A60" s="44"/>
+      <c r="B60" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C60" s="22" t="s">
+        <v>214</v>
+      </c>
+      <c r="D60" s="24" t="s">
+        <v>274</v>
+      </c>
+      <c r="E60" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="F60" s="24"/>
+    </row>
+    <row r="61" spans="1:6" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A61" s="44"/>
+      <c r="B61" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="C61" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="D61" s="24" t="s">
+        <v>275</v>
+      </c>
+      <c r="E61" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="F61" s="24"/>
+    </row>
+    <row r="62" spans="1:6" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A62" s="44"/>
+      <c r="B62" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C62" s="22" t="s">
+        <v>216</v>
+      </c>
+      <c r="D62" s="24" t="s">
+        <v>276</v>
+      </c>
+      <c r="E62" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="F62" s="24"/>
+    </row>
+    <row r="63" spans="1:6" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A63" s="44"/>
+      <c r="B63" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C63" s="22" t="s">
+        <v>217</v>
+      </c>
+      <c r="D63" s="24" t="s">
+        <v>277</v>
+      </c>
+      <c r="E63" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="F63" s="24"/>
+    </row>
+    <row r="64" spans="1:6" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A64" s="44"/>
+      <c r="B64" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="C64" s="22" t="s">
+        <v>218</v>
+      </c>
+      <c r="D64" s="24" t="s">
+        <v>278</v>
+      </c>
+      <c r="E64" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="F64" s="24"/>
+    </row>
+    <row r="65" spans="1:6" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A65" s="44"/>
+      <c r="B65" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="C65" s="31">
+        <v>29521</v>
+      </c>
+      <c r="D65" s="24" t="s">
+        <v>279</v>
+      </c>
+      <c r="E65" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="F65" s="24"/>
+    </row>
+    <row r="66" spans="1:6" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A66" s="44"/>
+      <c r="B66" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="C66" s="22">
+        <v>481115671</v>
+      </c>
+      <c r="D66" s="24" t="s">
+        <v>280</v>
+      </c>
+      <c r="E66" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="F66" s="24"/>
+    </row>
+    <row r="67" spans="1:6" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A67" s="44"/>
+      <c r="B67" s="40" t="s">
+        <v>331</v>
+      </c>
+      <c r="C67" s="22" t="s">
+        <v>332</v>
+      </c>
+      <c r="D67" s="24"/>
+      <c r="E67" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="F67" s="24"/>
+    </row>
+    <row r="68" spans="1:6" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A68" s="44"/>
+      <c r="B68" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="C68" s="22" t="s">
+        <v>333</v>
+      </c>
+      <c r="D68" s="24" t="s">
+        <v>281</v>
+      </c>
+      <c r="E68" s="22"/>
+      <c r="F68" s="24"/>
+    </row>
+    <row r="69" spans="1:6" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A69" s="44"/>
+      <c r="B69" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="C69" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="D69" s="24" t="s">
+        <v>282</v>
+      </c>
+      <c r="E69" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="F69" s="24"/>
+    </row>
+    <row r="70" spans="1:6" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A70" s="44"/>
+      <c r="B70" s="40" t="s">
+        <v>181</v>
+      </c>
+      <c r="C70" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="E70" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="F70" s="24"/>
+    </row>
+    <row r="71" spans="1:6" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A71" s="44"/>
+      <c r="B71" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C71" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="D71" s="24" t="s">
+        <v>283</v>
+      </c>
+      <c r="E71" s="33"/>
+      <c r="F71" s="24"/>
+    </row>
+    <row r="72" spans="1:6" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A72" s="44"/>
+      <c r="B72" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="C72" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="D72" s="24" t="s">
+        <v>284</v>
+      </c>
+      <c r="E72" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="F72" s="24"/>
+    </row>
+    <row r="73" spans="1:6" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A73" s="44"/>
+      <c r="B73" s="40" t="s">
+        <v>154</v>
+      </c>
+      <c r="C73" s="22" t="s">
+        <v>334</v>
+      </c>
+      <c r="D73" s="24"/>
+      <c r="E73" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="F73" s="24"/>
+    </row>
+    <row r="74" spans="1:6" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+      <c r="A74" s="44"/>
+      <c r="B74" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="C74" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="D74" s="24" t="s">
+        <v>285</v>
+      </c>
+      <c r="E74" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="F74" s="24"/>
+    </row>
+    <row r="75" spans="1:6" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A75" s="44"/>
+      <c r="B75" s="40" t="s">
+        <v>152</v>
+      </c>
+      <c r="C75" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="D75" s="24" t="s">
         <v>305</v>
       </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-    </row>
-    <row r="9" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>209</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>238</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>186</v>
-      </c>
-      <c r="E9" s="19"/>
-    </row>
-    <row r="10" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>210</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>239</v>
-      </c>
-      <c r="D10" s="29" t="s">
-        <v>185</v>
-      </c>
-      <c r="E10" s="19"/>
-    </row>
-    <row r="11" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>315</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>240</v>
-      </c>
-      <c r="D11" s="23"/>
-      <c r="E11" s="19"/>
-    </row>
-    <row r="12" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>212</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>241</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>201</v>
-      </c>
-      <c r="E12" s="19"/>
-    </row>
-    <row r="13" spans="1:5" ht="51" x14ac:dyDescent="0.25">
-      <c r="A13" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>315</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>242</v>
-      </c>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>316</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>243</v>
-      </c>
-      <c r="D14" s="19"/>
-    </row>
-    <row r="15" spans="1:5" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="24">
-        <v>5656787</v>
-      </c>
-      <c r="C15" s="24" t="s">
-        <v>244</v>
-      </c>
-      <c r="D15" s="24" t="s">
-        <v>170</v>
-      </c>
-      <c r="E15" s="22"/>
-    </row>
-    <row r="16" spans="1:5" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A16" s="24" t="s">
-        <v>177</v>
-      </c>
-      <c r="B16" s="24" t="s">
-        <v>213</v>
-      </c>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24" t="s">
-        <v>187</v>
-      </c>
-      <c r="E16" s="26"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-    </row>
-    <row r="18" spans="1:5" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="24" t="s">
-        <v>178</v>
-      </c>
-      <c r="B18" s="37" t="s">
-        <v>317</v>
-      </c>
-      <c r="C18" s="26" t="s">
-        <v>245</v>
-      </c>
-      <c r="D18" s="24" t="s">
-        <v>188</v>
-      </c>
-      <c r="E18" s="26"/>
-    </row>
-    <row r="19" spans="1:5" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="24" t="s">
-        <v>179</v>
-      </c>
-      <c r="B19" s="37" t="s">
-        <v>317</v>
-      </c>
-      <c r="C19" s="26"/>
-      <c r="D19" s="24" t="s">
-        <v>189</v>
-      </c>
-      <c r="E19" s="26"/>
-    </row>
-    <row r="20" spans="1:5" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
-      <c r="A20" s="24" t="s">
-        <v>169</v>
-      </c>
-      <c r="B20" s="24"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="24" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
-      <c r="A21" s="24" t="s">
-        <v>319</v>
-      </c>
-      <c r="B21" s="24"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26" t="s">
-        <v>171</v>
-      </c>
-      <c r="E21" s="24" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
-      <c r="A22" s="24" t="s">
-        <v>172</v>
-      </c>
-      <c r="B22" s="24" t="s">
-        <v>318</v>
-      </c>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26" t="s">
-        <v>173</v>
-      </c>
-      <c r="E22" s="24" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-    </row>
-    <row r="24" spans="1:5" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="24" t="s">
-        <v>214</v>
-      </c>
-      <c r="C24" s="26" t="s">
-        <v>246</v>
-      </c>
-      <c r="D24" s="30" t="s">
-        <v>190</v>
-      </c>
-      <c r="E24" s="25"/>
-    </row>
-    <row r="25" spans="1:5" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="B25" s="24" t="s">
-        <v>215</v>
-      </c>
-      <c r="C25" s="26" t="s">
-        <v>247</v>
-      </c>
-      <c r="D25" s="26" t="s">
-        <v>200</v>
-      </c>
-      <c r="E25" s="26"/>
-    </row>
-    <row r="26" spans="1:5" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A26" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="B26" s="37" t="s">
-        <v>320</v>
-      </c>
-      <c r="C26" s="26" t="s">
-        <v>248</v>
-      </c>
-      <c r="D26" s="26" t="s">
-        <v>199</v>
-      </c>
-      <c r="E26" s="26"/>
-    </row>
-    <row r="27" spans="1:5" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A27" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="B27" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="C27" s="26" t="s">
-        <v>249</v>
-      </c>
-      <c r="D27" s="36" t="s">
-        <v>207</v>
-      </c>
-      <c r="E27" s="25"/>
-    </row>
-    <row r="28" spans="1:5" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A28" s="24" t="s">
-        <v>139</v>
-      </c>
-      <c r="B28" s="37" t="s">
-        <v>312</v>
-      </c>
-      <c r="C28" s="26" t="s">
-        <v>250</v>
-      </c>
-      <c r="D28" s="26" t="s">
-        <v>164</v>
-      </c>
-      <c r="E28" s="25"/>
-    </row>
-    <row r="29" spans="1:5" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A29" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29" s="24" t="s">
-        <v>230</v>
-      </c>
-      <c r="C29" s="26" t="s">
-        <v>251</v>
-      </c>
-      <c r="D29" s="26" t="s">
-        <v>198</v>
-      </c>
-      <c r="E29" s="26"/>
-    </row>
-    <row r="30" spans="1:5" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A30" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="B30" s="24" t="s">
-        <v>231</v>
-      </c>
-      <c r="C30" s="26" t="s">
-        <v>252</v>
-      </c>
-      <c r="D30" s="26" t="s">
-        <v>197</v>
-      </c>
-      <c r="E30" s="26"/>
-    </row>
-    <row r="31" spans="1:5" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A31" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="B31" s="24">
-        <v>3557</v>
-      </c>
-      <c r="C31" s="26" t="s">
-        <v>253</v>
-      </c>
-      <c r="D31" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="E31" s="25"/>
-    </row>
-    <row r="32" spans="1:5" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
-      <c r="A32" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="B32" s="24" t="s">
-        <v>321</v>
-      </c>
-      <c r="C32" s="26" t="s">
-        <v>254</v>
-      </c>
-      <c r="D32" s="31" t="s">
-        <v>232</v>
-      </c>
-      <c r="E32" s="26"/>
-    </row>
-    <row r="33" spans="1:5" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A33" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="B33" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="C33" s="26" t="s">
-        <v>255</v>
-      </c>
-      <c r="D33" s="27"/>
-      <c r="E33" s="26" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
-      <c r="A34" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="B34" s="24" t="s">
-        <v>323</v>
-      </c>
-      <c r="C34" s="26" t="s">
-        <v>256</v>
-      </c>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
-    </row>
-    <row r="35" spans="1:5" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
-      <c r="A35" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="B35" s="24" t="s">
-        <v>325</v>
-      </c>
-      <c r="C35" s="26" t="s">
-        <v>257</v>
-      </c>
-      <c r="D35" s="26"/>
-      <c r="E35" s="26"/>
-    </row>
-    <row r="36" spans="1:5" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
-      <c r="A36" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="B36" s="24" t="s">
-        <v>328</v>
-      </c>
-      <c r="C36" s="26" t="s">
-        <v>258</v>
-      </c>
-      <c r="D36" s="26"/>
-      <c r="E36" s="26"/>
-    </row>
-    <row r="37" spans="1:5" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
-      <c r="A37" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="B37" s="24" t="s">
+      <c r="E75" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="F75" s="24"/>
+    </row>
+    <row r="76" spans="1:6" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A76" s="44"/>
+      <c r="B76" s="40" t="s">
+        <v>153</v>
+      </c>
+      <c r="C76" s="22" t="s">
         <v>224</v>
       </c>
-      <c r="C37" s="26" t="s">
-        <v>259</v>
-      </c>
-      <c r="D37" s="26"/>
-      <c r="E37" s="26"/>
-    </row>
-    <row r="38" spans="1:5" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A38" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="B38" s="24" t="s">
-        <v>326</v>
-      </c>
-      <c r="C38" s="26" t="s">
-        <v>260</v>
-      </c>
-      <c r="D38" s="26"/>
-      <c r="E38" s="26"/>
-    </row>
-    <row r="39" spans="1:5" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
-      <c r="A39" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="B39" s="24" t="s">
-        <v>325</v>
-      </c>
-      <c r="C39" s="26" t="s">
-        <v>261</v>
-      </c>
-      <c r="D39" s="29" t="s">
-        <v>234</v>
-      </c>
-      <c r="E39" s="29"/>
-    </row>
-    <row r="40" spans="1:5" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
-      <c r="A40" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="B40" s="24" t="s">
-        <v>327</v>
-      </c>
-      <c r="C40" s="26" t="s">
-        <v>262</v>
-      </c>
-      <c r="D40" s="26" t="s">
-        <v>196</v>
-      </c>
-      <c r="E40" s="26"/>
-    </row>
-    <row r="41" spans="1:5" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
-      <c r="A41" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="B41" s="24" t="s">
-        <v>224</v>
-      </c>
-      <c r="C41" s="26" t="s">
-        <v>263</v>
-      </c>
-      <c r="D41" s="26"/>
-      <c r="E41" s="26"/>
-    </row>
-    <row r="42" spans="1:5" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A42" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="B42" s="24" t="s">
-        <v>329</v>
-      </c>
-      <c r="C42" s="26" t="s">
-        <v>264</v>
-      </c>
-      <c r="D42" s="26"/>
-      <c r="E42" s="26"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B43" s="18"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="18"/>
-    </row>
-    <row r="44" spans="1:5" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A44" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B44" s="26"/>
-      <c r="C44" s="26" t="s">
-        <v>265</v>
-      </c>
-      <c r="D44" s="26"/>
-      <c r="E44" s="26"/>
-    </row>
-    <row r="45" spans="1:5" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A45" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="B45" s="37" t="s">
-        <v>312</v>
-      </c>
-      <c r="C45" s="26" t="s">
-        <v>266</v>
-      </c>
-      <c r="D45" s="26"/>
-      <c r="E45" s="26"/>
-    </row>
-    <row r="46" spans="1:5" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A46" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B46" s="24">
-        <v>2</v>
-      </c>
-      <c r="C46" s="26" t="s">
-        <v>267</v>
-      </c>
-      <c r="D46" s="29" t="s">
-        <v>191</v>
-      </c>
-      <c r="E46" s="26"/>
-    </row>
-    <row r="47" spans="1:5" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A47" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="B47" s="24" t="s">
-        <v>330</v>
-      </c>
-      <c r="C47" s="26" t="s">
-        <v>268</v>
-      </c>
-      <c r="D47" s="26" t="s">
-        <v>195</v>
-      </c>
-      <c r="E47" s="26"/>
-    </row>
-    <row r="48" spans="1:5" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A48" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B48" s="24" t="s">
-        <v>215</v>
-      </c>
-      <c r="C48" s="26" t="s">
-        <v>269</v>
-      </c>
-      <c r="D48" s="24" t="s">
-        <v>184</v>
-      </c>
-      <c r="E48" s="25" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A49" s="25" t="s">
-        <v>182</v>
-      </c>
-      <c r="B49" s="24" t="s">
-        <v>349</v>
-      </c>
-      <c r="C49" s="26"/>
-      <c r="D49" s="32" t="s">
-        <v>168</v>
-      </c>
-      <c r="E49" s="26" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A50" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="B50" s="24">
-        <v>11</v>
-      </c>
-      <c r="C50" s="26" t="s">
-        <v>270</v>
-      </c>
-      <c r="D50" s="26" t="s">
-        <v>192</v>
-      </c>
-      <c r="E50" s="26"/>
-    </row>
-    <row r="51" spans="1:5" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
-      <c r="A51" s="24" t="s">
-        <v>348</v>
-      </c>
-      <c r="B51" s="24" t="s">
-        <v>332</v>
-      </c>
-      <c r="C51" s="26" t="s">
-        <v>271</v>
-      </c>
-      <c r="D51" s="28"/>
-      <c r="E51" s="26"/>
-    </row>
-    <row r="52" spans="1:5" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
-      <c r="A52" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B52" s="24" t="s">
-        <v>333</v>
-      </c>
-      <c r="C52" s="26" t="s">
-        <v>272</v>
-      </c>
-      <c r="D52" s="26" t="s">
-        <v>193</v>
-      </c>
-      <c r="E52" s="26"/>
-    </row>
-    <row r="53" spans="1:5" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A53" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B53" s="24" t="s">
-        <v>347</v>
-      </c>
-      <c r="C53" s="26" t="s">
-        <v>273</v>
-      </c>
-      <c r="D53" s="26" t="s">
-        <v>194</v>
-      </c>
-      <c r="E53" s="26"/>
-    </row>
-    <row r="54" spans="1:5" s="2" customFormat="1" ht="175.5" x14ac:dyDescent="0.25">
-      <c r="A54" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B54" s="24" t="s">
-        <v>346</v>
-      </c>
-      <c r="C54" s="26" t="s">
+      <c r="D76" s="24"/>
+      <c r="E76" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="F76" s="24"/>
+    </row>
+    <row r="77" spans="1:6" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A77" s="44"/>
+      <c r="B77" s="40" t="s">
+        <v>134</v>
+      </c>
+      <c r="C77" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="D77" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="E77" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="F77" s="24"/>
+    </row>
+    <row r="78" spans="1:6" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A78" s="44"/>
+      <c r="B78" s="40" t="s">
+        <v>135</v>
+      </c>
+      <c r="C78" s="22" t="s">
+        <v>226</v>
+      </c>
+      <c r="D78" s="24" t="s">
+        <v>307</v>
+      </c>
+      <c r="E78" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="F78" s="24"/>
+    </row>
+    <row r="79" spans="1:6" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A79" s="44"/>
+      <c r="B79" s="40" t="s">
+        <v>141</v>
+      </c>
+      <c r="C79" s="24"/>
+      <c r="D79" s="24" t="s">
+        <v>286</v>
+      </c>
+      <c r="E79" s="24"/>
+      <c r="F79" s="24"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="43"/>
+      <c r="B80" s="38" t="s">
+        <v>160</v>
+      </c>
+      <c r="C80" s="17"/>
+      <c r="D80" s="17" t="s">
+        <v>287</v>
+      </c>
+      <c r="E80" s="17"/>
+      <c r="F80" s="17"/>
+    </row>
+    <row r="81" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A81" s="43"/>
+      <c r="B81" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="C81" s="18"/>
+      <c r="D81" s="18" t="s">
+        <v>288</v>
+      </c>
+      <c r="E81" s="18"/>
+      <c r="F81" s="18"/>
+    </row>
+    <row r="82" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A82" s="43"/>
+      <c r="B82" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="C82" s="18" t="s">
+        <v>335</v>
+      </c>
+      <c r="D82" s="18" t="s">
         <v>274</v>
       </c>
-      <c r="D54" s="26"/>
-      <c r="E54" s="26"/>
-    </row>
-    <row r="55" spans="1:5" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A55" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="B55" s="24" t="s">
-        <v>345</v>
-      </c>
-      <c r="C55" s="26" t="s">
+      <c r="E82" s="18"/>
+      <c r="F82" s="18"/>
+    </row>
+    <row r="83" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A83" s="43"/>
+      <c r="B83" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="C83" s="18" t="s">
+        <v>336</v>
+      </c>
+      <c r="D83" s="18" t="s">
         <v>275</v>
       </c>
-      <c r="D55" s="26"/>
-      <c r="E55" s="25"/>
-    </row>
-    <row r="56" spans="1:5" s="2" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="24" t="s">
-        <v>167</v>
-      </c>
-      <c r="B56" s="26"/>
-      <c r="C56" s="26"/>
-      <c r="D56" s="25"/>
-      <c r="E56" s="25"/>
-    </row>
-    <row r="57" spans="1:5" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A57" s="24" t="s">
-        <v>133</v>
-      </c>
-      <c r="B57" s="26" t="s">
-        <v>334</v>
-      </c>
-      <c r="C57" s="26" t="s">
-        <v>306</v>
-      </c>
-      <c r="D57" s="25"/>
-      <c r="E57" s="28"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="B58" s="18"/>
-      <c r="C58" s="18"/>
-      <c r="D58" s="18"/>
-      <c r="E58" s="18"/>
-    </row>
-    <row r="59" spans="1:5" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A59" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="B59" s="24" t="s">
-        <v>216</v>
-      </c>
-      <c r="C59" s="26" t="s">
-        <v>276</v>
-      </c>
-      <c r="D59" s="26" t="s">
-        <v>202</v>
-      </c>
-      <c r="E59" s="26"/>
-    </row>
-    <row r="60" spans="1:5" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A60" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="B60" s="24" t="s">
-        <v>217</v>
-      </c>
-      <c r="C60" s="26" t="s">
-        <v>277</v>
-      </c>
-      <c r="D60" s="26" t="s">
-        <v>203</v>
-      </c>
-      <c r="E60" s="26"/>
-    </row>
-    <row r="61" spans="1:5" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A61" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="B61" s="24" t="s">
-        <v>218</v>
-      </c>
-      <c r="C61" s="26" t="s">
-        <v>278</v>
-      </c>
-      <c r="D61" s="26" t="s">
-        <v>204</v>
-      </c>
-      <c r="E61" s="26"/>
-    </row>
-    <row r="62" spans="1:5" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A62" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="B62" s="24" t="s">
-        <v>219</v>
-      </c>
-      <c r="C62" s="26" t="s">
-        <v>279</v>
-      </c>
-      <c r="D62" s="26" t="s">
-        <v>166</v>
-      </c>
-      <c r="E62" s="26"/>
-    </row>
-    <row r="63" spans="1:5" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A63" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="B63" s="24" t="s">
-        <v>220</v>
-      </c>
-      <c r="C63" s="26" t="s">
-        <v>280</v>
-      </c>
-      <c r="D63" s="24" t="s">
-        <v>205</v>
-      </c>
-      <c r="E63" s="26"/>
-    </row>
-    <row r="64" spans="1:5" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A64" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="B64" s="33">
-        <v>29521</v>
-      </c>
-      <c r="C64" s="26" t="s">
-        <v>281</v>
-      </c>
-      <c r="D64" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="E64" s="26"/>
-    </row>
-    <row r="65" spans="1:5" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A65" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="B65" s="24">
-        <v>481115671</v>
-      </c>
-      <c r="C65" s="26" t="s">
-        <v>282</v>
-      </c>
-      <c r="D65" s="24" t="s">
-        <v>150</v>
-      </c>
-      <c r="E65" s="26"/>
-    </row>
-    <row r="66" spans="1:5" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A66" s="24" t="s">
-        <v>335</v>
-      </c>
-      <c r="B66" s="24" t="s">
-        <v>336</v>
-      </c>
-      <c r="C66" s="26"/>
-      <c r="D66" s="24" t="s">
-        <v>151</v>
-      </c>
-      <c r="E66" s="26"/>
-    </row>
-    <row r="67" spans="1:5" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A67" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="B67" s="24" t="s">
-        <v>337</v>
-      </c>
-      <c r="C67" s="26" t="s">
-        <v>283</v>
-      </c>
-      <c r="D67" s="24"/>
-      <c r="E67" s="26"/>
-    </row>
-    <row r="68" spans="1:5" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A68" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="B68" s="24" t="s">
-        <v>221</v>
-      </c>
-      <c r="C68" s="26" t="s">
-        <v>284</v>
-      </c>
-      <c r="D68" s="34" t="s">
-        <v>150</v>
-      </c>
-      <c r="E68" s="26"/>
-    </row>
-    <row r="69" spans="1:5" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A69" s="24" t="s">
-        <v>183</v>
-      </c>
-      <c r="B69" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="D69" s="24" t="s">
-        <v>151</v>
-      </c>
-      <c r="E69" s="26"/>
-    </row>
-    <row r="70" spans="1:5" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A70" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="B70" s="24" t="s">
-        <v>224</v>
-      </c>
-      <c r="C70" s="26" t="s">
-        <v>285</v>
-      </c>
-      <c r="D70" s="35"/>
-      <c r="E70" s="26"/>
-    </row>
-    <row r="71" spans="1:5" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A71" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="B71" s="24" t="s">
-        <v>223</v>
-      </c>
-      <c r="C71" s="26" t="s">
-        <v>286</v>
-      </c>
-      <c r="D71" s="26" t="s">
-        <v>150</v>
-      </c>
-      <c r="E71" s="26"/>
-    </row>
-    <row r="72" spans="1:5" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A72" s="24" t="s">
-        <v>154</v>
-      </c>
-      <c r="B72" s="24" t="s">
-        <v>338</v>
-      </c>
-      <c r="C72" s="26"/>
-      <c r="D72" s="26" t="s">
-        <v>151</v>
-      </c>
-      <c r="E72" s="26"/>
-    </row>
-    <row r="73" spans="1:5" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
-      <c r="A73" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="B73" s="24" t="s">
-        <v>224</v>
-      </c>
-      <c r="C73" s="26" t="s">
-        <v>287</v>
-      </c>
-      <c r="D73" s="26" t="s">
-        <v>155</v>
-      </c>
-      <c r="E73" s="26"/>
-    </row>
-    <row r="74" spans="1:5" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A74" s="24" t="s">
-        <v>152</v>
-      </c>
-      <c r="B74" s="24" t="s">
-        <v>225</v>
-      </c>
-      <c r="C74" s="26" t="s">
-        <v>307</v>
-      </c>
-      <c r="D74" s="26" t="s">
-        <v>150</v>
-      </c>
-      <c r="E74" s="26"/>
-    </row>
-    <row r="75" spans="1:5" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A75" s="24" t="s">
-        <v>153</v>
-      </c>
-      <c r="B75" s="24" t="s">
-        <v>226</v>
-      </c>
-      <c r="C75" s="26"/>
-      <c r="D75" s="26" t="s">
-        <v>151</v>
-      </c>
-      <c r="E75" s="26"/>
-    </row>
-    <row r="76" spans="1:5" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A76" s="24" t="s">
-        <v>134</v>
-      </c>
-      <c r="B76" s="24" t="s">
-        <v>227</v>
-      </c>
-      <c r="C76" s="26" t="s">
-        <v>308</v>
-      </c>
-      <c r="D76" s="26" t="s">
-        <v>150</v>
-      </c>
-      <c r="E76" s="26"/>
-    </row>
-    <row r="77" spans="1:5" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A77" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="B77" s="24" t="s">
-        <v>228</v>
-      </c>
-      <c r="C77" s="26" t="s">
-        <v>309</v>
-      </c>
-      <c r="D77" s="26" t="s">
-        <v>151</v>
-      </c>
-      <c r="E77" s="26"/>
-    </row>
-    <row r="78" spans="1:5" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A78" s="24" t="s">
-        <v>141</v>
-      </c>
-      <c r="B78" s="26"/>
-      <c r="C78" s="26" t="s">
-        <v>288</v>
-      </c>
-      <c r="D78" s="26"/>
-      <c r="E78" s="26"/>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="B79" s="18"/>
-      <c r="C79" s="18" t="s">
-        <v>289</v>
-      </c>
-      <c r="D79" s="18"/>
-      <c r="E79" s="18"/>
-    </row>
-    <row r="80" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A80" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="B80" s="19"/>
-      <c r="C80" s="19" t="s">
-        <v>290</v>
-      </c>
-      <c r="D80" s="19"/>
-      <c r="E80" s="19"/>
-    </row>
-    <row r="81" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A81" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="B81" s="19" t="s">
-        <v>339</v>
-      </c>
-      <c r="C81" s="19" t="s">
-        <v>276</v>
-      </c>
-      <c r="D81" s="19"/>
-      <c r="E81" s="19"/>
-    </row>
-    <row r="82" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A82" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="B82" s="19" t="s">
-        <v>340</v>
-      </c>
-      <c r="C82" s="19" t="s">
-        <v>277</v>
-      </c>
-      <c r="D82" s="19"/>
-      <c r="E82" s="19"/>
-      <c r="F82" s="3"/>
-      <c r="G82" s="3"/>
-      <c r="H82" s="3"/>
-      <c r="I82" s="3"/>
-    </row>
-    <row r="83" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A83" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="B83" s="19" t="s">
-        <v>341</v>
-      </c>
-      <c r="C83" s="19" t="s">
-        <v>278</v>
-      </c>
-      <c r="D83" s="19"/>
-      <c r="E83" s="19"/>
-      <c r="F83" s="3"/>
+      <c r="E83" s="18"/>
+      <c r="F83" s="18"/>
       <c r="G83" s="3"/>
       <c r="H83" s="3"/>
       <c r="I83" s="3"/>
-    </row>
-    <row r="84" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A84" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="B84" s="19"/>
-      <c r="C84" s="19" t="s">
-        <v>279</v>
-      </c>
-      <c r="D84" s="19"/>
-      <c r="E84" s="19"/>
-      <c r="F84" s="3"/>
+      <c r="J83" s="3"/>
+    </row>
+    <row r="84" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A84" s="43"/>
+      <c r="B84" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="C84" s="18" t="s">
+        <v>337</v>
+      </c>
+      <c r="D84" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="E84" s="18"/>
+      <c r="F84" s="18"/>
       <c r="G84" s="3"/>
       <c r="H84" s="3"/>
       <c r="I84" s="3"/>
-    </row>
-    <row r="85" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A85" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="B85" s="21" t="s">
-        <v>342</v>
-      </c>
-      <c r="C85" s="19" t="s">
-        <v>280</v>
-      </c>
-      <c r="D85" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="E85" s="19"/>
-      <c r="F85" s="3"/>
+      <c r="J84" s="3"/>
+    </row>
+    <row r="85" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A85" s="43"/>
+      <c r="B85" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="C85" s="18"/>
+      <c r="D85" s="18" t="s">
+        <v>277</v>
+      </c>
+      <c r="E85" s="18"/>
+      <c r="F85" s="18"/>
       <c r="G85" s="3"/>
       <c r="H85" s="3"/>
       <c r="I85" s="3"/>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" s="20" t="s">
-        <v>324</v>
-      </c>
-      <c r="B86" s="18"/>
-      <c r="C86" s="18" t="s">
-        <v>291</v>
-      </c>
-      <c r="D86" s="18"/>
-      <c r="E86" s="18"/>
-      <c r="F86" s="3"/>
+      <c r="J85" s="3"/>
+    </row>
+    <row r="86" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A86" s="43"/>
+      <c r="B86" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="C86" s="19" t="s">
+        <v>338</v>
+      </c>
+      <c r="D86" s="18" t="s">
+        <v>278</v>
+      </c>
+      <c r="E86" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="F86" s="18"/>
       <c r="G86" s="3"/>
       <c r="H86" s="3"/>
       <c r="I86" s="3"/>
-    </row>
-    <row r="87" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A87" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="B87" s="19"/>
-      <c r="C87" s="19" t="s">
-        <v>292</v>
-      </c>
-      <c r="D87" s="19"/>
-      <c r="E87" s="19"/>
-      <c r="F87" s="3"/>
+      <c r="J86" s="3"/>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A87" s="43"/>
+      <c r="B87" s="38" t="s">
+        <v>322</v>
+      </c>
+      <c r="C87" s="17"/>
+      <c r="D87" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="E87" s="17"/>
+      <c r="F87" s="17"/>
       <c r="G87" s="3"/>
       <c r="H87" s="3"/>
       <c r="I87" s="3"/>
-    </row>
-    <row r="88" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A88" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="B88" s="19"/>
-      <c r="C88" s="19" t="s">
-        <v>293</v>
-      </c>
-      <c r="D88" s="19"/>
-      <c r="E88" s="19"/>
-      <c r="F88" s="3"/>
+      <c r="J87" s="3"/>
+    </row>
+    <row r="88" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A88" s="43"/>
+      <c r="B88" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="C88" s="18"/>
+      <c r="D88" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="E88" s="18"/>
+      <c r="F88" s="18"/>
       <c r="G88" s="3"/>
       <c r="H88" s="3"/>
       <c r="I88" s="3"/>
-    </row>
-    <row r="89" spans="1:9" ht="51" x14ac:dyDescent="0.25">
-      <c r="A89" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="B89" s="19"/>
-      <c r="C89" s="19" t="s">
-        <v>294</v>
-      </c>
-      <c r="D89" s="19"/>
-      <c r="E89" s="19"/>
-      <c r="F89" s="3"/>
+      <c r="J88" s="3"/>
+    </row>
+    <row r="89" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A89" s="43"/>
+      <c r="B89" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="C89" s="18"/>
+      <c r="D89" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="E89" s="18"/>
+      <c r="F89" s="18"/>
       <c r="G89" s="3"/>
       <c r="H89" s="3"/>
       <c r="I89" s="3"/>
-    </row>
-    <row r="90" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A90" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="B90" s="19"/>
-      <c r="C90" s="19" t="s">
-        <v>295</v>
-      </c>
-      <c r="D90" s="19"/>
-      <c r="E90" s="19"/>
-      <c r="F90" s="3"/>
+      <c r="J89" s="3"/>
+    </row>
+    <row r="90" spans="1:10" ht="51" x14ac:dyDescent="0.25">
+      <c r="A90" s="43"/>
+      <c r="B90" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="C90" s="18"/>
+      <c r="D90" s="18" t="s">
+        <v>292</v>
+      </c>
+      <c r="E90" s="18"/>
+      <c r="F90" s="18"/>
       <c r="G90" s="3"/>
       <c r="H90" s="3"/>
       <c r="I90" s="3"/>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A91" s="20" t="s">
-        <v>161</v>
-      </c>
-      <c r="B91" s="18"/>
-      <c r="C91" s="18" t="s">
-        <v>296</v>
-      </c>
-      <c r="D91" s="18"/>
+      <c r="J90" s="3"/>
+    </row>
+    <row r="91" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A91" s="43"/>
+      <c r="B91" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="C91" s="18"/>
+      <c r="D91" s="18" t="s">
+        <v>293</v>
+      </c>
       <c r="E91" s="18"/>
-      <c r="F91" s="3"/>
+      <c r="F91" s="18"/>
       <c r="G91" s="3"/>
       <c r="H91" s="3"/>
       <c r="I91" s="3"/>
-    </row>
-    <row r="92" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A92" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="B92" s="21" t="s">
-        <v>229</v>
-      </c>
-      <c r="C92" s="19" t="s">
-        <v>297</v>
-      </c>
-      <c r="D92" s="19" t="s">
-        <v>163</v>
-      </c>
-      <c r="E92" s="19"/>
-      <c r="F92" s="3"/>
+      <c r="J91" s="3"/>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A92" s="43"/>
+      <c r="B92" s="38" t="s">
+        <v>161</v>
+      </c>
+      <c r="C92" s="17"/>
+      <c r="D92" s="17" t="s">
+        <v>294</v>
+      </c>
+      <c r="E92" s="17"/>
+      <c r="F92" s="17"/>
       <c r="G92" s="3"/>
       <c r="H92" s="3"/>
       <c r="I92" s="3"/>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A93" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="B93" s="18"/>
-      <c r="C93" s="18" t="s">
-        <v>298</v>
-      </c>
-      <c r="D93" s="18"/>
-      <c r="E93" s="18"/>
-      <c r="F93" s="3"/>
+      <c r="J92" s="3"/>
+    </row>
+    <row r="93" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A93" s="43"/>
+      <c r="B93" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="C93" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="D93" s="18" t="s">
+        <v>295</v>
+      </c>
+      <c r="E93" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="F93" s="18"/>
       <c r="G93" s="3"/>
       <c r="H93" s="3"/>
       <c r="I93" s="3"/>
-    </row>
-    <row r="94" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A94" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="B94" s="19" t="s">
-        <v>343</v>
-      </c>
-      <c r="C94" s="19" t="s">
-        <v>299</v>
-      </c>
-      <c r="D94" s="19"/>
-      <c r="E94" s="19"/>
-      <c r="F94" s="3"/>
+      <c r="J93" s="3"/>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A94" s="43"/>
+      <c r="B94" s="38" t="s">
+        <v>157</v>
+      </c>
+      <c r="C94" s="17"/>
+      <c r="D94" s="17" t="s">
+        <v>296</v>
+      </c>
+      <c r="E94" s="17"/>
+      <c r="F94" s="17"/>
       <c r="G94" s="3"/>
       <c r="H94" s="3"/>
       <c r="I94" s="3"/>
-    </row>
-    <row r="95" spans="1:9" ht="51" x14ac:dyDescent="0.25">
-      <c r="A95" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="B95" s="21" t="s">
-        <v>233</v>
-      </c>
-      <c r="C95" s="19" t="s">
-        <v>300</v>
-      </c>
-      <c r="D95" s="19" t="s">
-        <v>156</v>
-      </c>
-      <c r="E95" s="19"/>
-      <c r="F95" s="3"/>
+      <c r="J94" s="3"/>
+    </row>
+    <row r="95" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A95" s="43"/>
+      <c r="B95" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="C95" s="18" t="s">
+        <v>339</v>
+      </c>
+      <c r="D95" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="E95" s="18"/>
+      <c r="F95" s="18"/>
       <c r="G95" s="3"/>
       <c r="H95" s="3"/>
       <c r="I95" s="3"/>
-    </row>
-    <row r="96" spans="1:9" ht="51" x14ac:dyDescent="0.25">
-      <c r="A96" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="B96" s="21" t="s">
-        <v>211</v>
+      <c r="J95" s="3"/>
+    </row>
+    <row r="96" spans="1:10" ht="51" x14ac:dyDescent="0.25">
+      <c r="A96" s="43"/>
+      <c r="B96" s="39" t="s">
+        <v>145</v>
       </c>
       <c r="C96" s="19" t="s">
-        <v>301</v>
-      </c>
-      <c r="D96" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="E96" s="19"/>
-      <c r="F96" s="3"/>
+        <v>231</v>
+      </c>
+      <c r="D96" s="18" t="s">
+        <v>298</v>
+      </c>
+      <c r="E96" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="F96" s="18"/>
       <c r="G96" s="3"/>
       <c r="H96" s="3"/>
       <c r="I96" s="3"/>
-    </row>
-    <row r="97" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A97" s="21" t="s">
-        <v>147</v>
-      </c>
-      <c r="B97" s="21" t="s">
-        <v>344</v>
+      <c r="J96" s="3"/>
+    </row>
+    <row r="97" spans="1:10" ht="51" x14ac:dyDescent="0.25">
+      <c r="A97" s="43"/>
+      <c r="B97" s="39" t="s">
+        <v>146</v>
       </c>
       <c r="C97" s="19" t="s">
-        <v>302</v>
-      </c>
-      <c r="D97" s="19"/>
-      <c r="E97" s="19"/>
-      <c r="F97" s="3"/>
+        <v>209</v>
+      </c>
+      <c r="D97" s="18" t="s">
+        <v>299</v>
+      </c>
+      <c r="E97" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="F97" s="18"/>
       <c r="G97" s="3"/>
       <c r="H97" s="3"/>
       <c r="I97" s="3"/>
-    </row>
-    <row r="98" spans="1:9" ht="51" x14ac:dyDescent="0.25">
-      <c r="A98" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="B98" s="21">
-        <v>21905</v>
+      <c r="J97" s="3"/>
+    </row>
+    <row r="98" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A98" s="43"/>
+      <c r="B98" s="39" t="s">
+        <v>147</v>
       </c>
       <c r="C98" s="19" t="s">
-        <v>303</v>
-      </c>
-      <c r="D98" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="E98" s="19"/>
-      <c r="F98" s="3"/>
+        <v>340</v>
+      </c>
+      <c r="D98" s="18" t="s">
+        <v>300</v>
+      </c>
+      <c r="E98" s="18"/>
+      <c r="F98" s="18"/>
       <c r="G98" s="3"/>
       <c r="H98" s="3"/>
       <c r="I98" s="3"/>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A99" s="10"/>
-      <c r="B99" s="3"/>
-      <c r="C99" s="3"/>
-      <c r="D99" s="3"/>
-      <c r="E99" s="3"/>
-      <c r="F99" s="3"/>
+      <c r="J98" s="3"/>
+    </row>
+    <row r="99" spans="1:10" ht="51" x14ac:dyDescent="0.25">
+      <c r="A99" s="43"/>
+      <c r="B99" s="39" t="s">
+        <v>148</v>
+      </c>
+      <c r="C99" s="19">
+        <v>21905</v>
+      </c>
+      <c r="D99" s="18" t="s">
+        <v>301</v>
+      </c>
+      <c r="E99" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="F99" s="18"/>
       <c r="G99" s="3"/>
       <c r="H99" s="3"/>
       <c r="I99" s="3"/>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A100" s="10"/>
-      <c r="B100" s="3"/>
-      <c r="C100" s="3"/>
-      <c r="D100" s="3"/>
-      <c r="E100" s="3"/>
+      <c r="J99" s="3"/>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A100" s="43"/>
+      <c r="B100" s="42" t="s">
+        <v>348</v>
+      </c>
+      <c r="C100" s="36"/>
+      <c r="D100" s="36" t="s">
+        <v>347</v>
+      </c>
+      <c r="E100" s="36"/>
       <c r="F100" s="3"/>
       <c r="G100" s="3"/>
       <c r="H100" s="3"/>
       <c r="I100" s="3"/>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A101" s="10"/>
-      <c r="B101" s="3"/>
+      <c r="J100" s="3"/>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B101" s="10"/>
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
@@ -3404,21 +3601,23 @@
       <c r="G101" s="3"/>
       <c r="H101" s="3"/>
       <c r="I101" s="3"/>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A102" s="10"/>
-      <c r="B102" s="3"/>
+      <c r="J101" s="3"/>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B102" s="10"/>
       <c r="C102" s="3"/>
-      <c r="D102" s="3"/>
+      <c r="D102" s="3" t="s">
+        <v>346</v>
+      </c>
       <c r="E102" s="3"/>
       <c r="F102" s="3"/>
       <c r="G102" s="3"/>
       <c r="H102" s="3"/>
       <c r="I102" s="3"/>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A103" s="10"/>
-      <c r="B103" s="3"/>
+      <c r="J102" s="3"/>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B103" s="10"/>
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
       <c r="E103" s="3"/>
@@ -3426,10 +3625,10 @@
       <c r="G103" s="3"/>
       <c r="H103" s="3"/>
       <c r="I103" s="3"/>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A104" s="10"/>
-      <c r="B104" s="3"/>
+      <c r="J103" s="3"/>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B104" s="10"/>
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
       <c r="E104" s="3"/>
@@ -3437,10 +3636,10 @@
       <c r="G104" s="3"/>
       <c r="H104" s="3"/>
       <c r="I104" s="3"/>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A105" s="10"/>
-      <c r="B105" s="3"/>
+      <c r="J104" s="3"/>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B105" s="10"/>
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
       <c r="E105" s="3"/>
@@ -3448,10 +3647,10 @@
       <c r="G105" s="3"/>
       <c r="H105" s="3"/>
       <c r="I105" s="3"/>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A106" s="10"/>
-      <c r="B106" s="3"/>
+      <c r="J105" s="3"/>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B106" s="10"/>
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
@@ -3459,10 +3658,10 @@
       <c r="G106" s="3"/>
       <c r="H106" s="3"/>
       <c r="I106" s="3"/>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A107" s="10"/>
-      <c r="B107" s="3"/>
+      <c r="J106" s="3"/>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B107" s="10"/>
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
@@ -3470,10 +3669,10 @@
       <c r="G107" s="3"/>
       <c r="H107" s="3"/>
       <c r="I107" s="3"/>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A108" s="10"/>
-      <c r="B108" s="3"/>
+      <c r="J107" s="3"/>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B108" s="10"/>
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
       <c r="E108" s="3"/>
@@ -3481,18 +3680,25 @@
       <c r="G108" s="3"/>
       <c r="H108" s="3"/>
       <c r="I108" s="3"/>
+      <c r="J108" s="3"/>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B109" s="10"/>
+      <c r="C109" s="3"/>
+      <c r="D109" s="3"/>
+      <c r="E109" s="3"/>
+      <c r="F109" s="3"/>
+      <c r="G109" s="3"/>
+      <c r="H109" s="3"/>
+      <c r="I109" s="3"/>
+      <c r="J109" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B55" r:id="rId1" location="11.71.010" display="http://www.legis.state.ak.us/basis/statutes.asp - 11.71.010"/>
+    <hyperlink ref="C56" r:id="rId1" location="11.71.010" display="http://www.legis.state.ak.us/basis/statutes.asp - 11.71.010"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
